--- a/src/com/qtpselenium/xls/C Suite.xlsx
+++ b/src/com/qtpselenium/xls/C Suite.xlsx
@@ -12,12 +12,15 @@
     <sheet name="Login " sheetId="2" r:id="rId3"/>
     <sheet name="Appointment_Creation" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Steps'!$D$1:$D$272</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="408">
   <si>
     <t>TCID</t>
   </si>
@@ -1055,6 +1058,202 @@
   </si>
   <si>
     <t>Corneal ok button</t>
+  </si>
+  <si>
+    <t>eye_health_ok</t>
+  </si>
+  <si>
+    <t>click on Eye Health ok button</t>
+  </si>
+  <si>
+    <t>close browser</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail--Not able to verify text:invalid selector: Unable to locate an element with the xpath expression //*[@id='main']/section/div[1]/form/div[1]/h1 because of the following error:
+TypeError: Failed to execute 'createNSResolver' on 'Document': parameter 1 is not of type 'Node'.
+  (Session info: chrome=47.0.2526.106)
+  (Driver info: chromedriver=2.6.232923,platform=Windows NT 6.1 SP1 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 485 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/invalid_selector_exception.html
+Build info: version: '2.44.0', revision: '76d78cf', time: '2014-10-23 20:03:00'
+System info: host: 'ATLANTISPC-274', ip: '10.210.16.26', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_79'
+Session ID: b7cb22d648d31addffb0898d78cefdbb
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{platform=XP, acceptSslCerts=true, javascriptEnabled=true, browserName=chrome, chrome={userDataDir=C:\Users\aakarg\AppData\Local\Temp\scoped_dir9948_14762}, rotatable=false, locationContextEnabled=true, version=47.0.2526.106, takesHeapSnapshot=true, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, applicationCacheEnabled=false, takesScreenshot=true}]</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>Spectacle_Rx</t>
+  </si>
+  <si>
+    <t>Open refracted column</t>
+  </si>
+  <si>
+    <t>refracted_open</t>
+  </si>
+  <si>
+    <t>Add Refracted Values</t>
+  </si>
+  <si>
+    <t>Refracted_values</t>
+  </si>
+  <si>
+    <t>Referacted_values|Referacted_ok</t>
+  </si>
+  <si>
+    <t>Refracted Rx comments</t>
+  </si>
+  <si>
+    <t>Referacted_comments</t>
+  </si>
+  <si>
+    <t>config|referacted_comments</t>
+  </si>
+  <si>
+    <t>Enter BVD values</t>
+  </si>
+  <si>
+    <t>BVD_values</t>
+  </si>
+  <si>
+    <t>click_referacted_bottom_ok</t>
+  </si>
+  <si>
+    <t>click referacted ok button</t>
+  </si>
+  <si>
+    <t>PD_bin</t>
+  </si>
+  <si>
+    <t>work_distance_immediate</t>
+  </si>
+  <si>
+    <t>work_distance_near</t>
+  </si>
+  <si>
+    <t>R_specific</t>
+  </si>
+  <si>
+    <t>enter PD value</t>
+  </si>
+  <si>
+    <t>enter work module</t>
+  </si>
+  <si>
+    <t>enter work distance</t>
+  </si>
+  <si>
+    <t>click on R button</t>
+  </si>
+  <si>
+    <t>click_and_clear</t>
+  </si>
+  <si>
+    <t>clear_box</t>
+  </si>
+  <si>
+    <t>clear filed value</t>
+  </si>
+  <si>
+    <t>add value in clear box</t>
+  </si>
+  <si>
+    <t>config|R_value</t>
+  </si>
+  <si>
+    <t>L_Specific</t>
+  </si>
+  <si>
+    <t>config|L_value</t>
+  </si>
+  <si>
+    <t>L specific button</t>
+  </si>
+  <si>
+    <t>clearfield value</t>
+  </si>
+  <si>
+    <t>enter value</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>config|reason_refracted</t>
+  </si>
+  <si>
+    <t>enter value for reason</t>
+  </si>
+  <si>
+    <t>click on reason button</t>
+  </si>
+  <si>
+    <t>near_value</t>
+  </si>
+  <si>
+    <t>enter value in near column</t>
+  </si>
+  <si>
+    <t>Spectacle_final_ok</t>
+  </si>
+  <si>
+    <t>close final window</t>
+  </si>
+  <si>
+    <t>copy_button</t>
+  </si>
+  <si>
+    <t>click on copy button</t>
+  </si>
+  <si>
+    <t>select_prescribe_Rx</t>
+  </si>
+  <si>
+    <t>select prescribe rx from drop down</t>
+  </si>
+  <si>
+    <t>open_prescribed_rx</t>
+  </si>
+  <si>
+    <t>reason_prescribed_rx</t>
+  </si>
+  <si>
+    <t>config|prescribed_reason</t>
+  </si>
+  <si>
+    <t>open prescribed rx window</t>
+  </si>
+  <si>
+    <t>clear the reason box</t>
+  </si>
+  <si>
+    <t>write the reason comments</t>
+  </si>
+  <si>
+    <t>close prescribed rx screen</t>
+  </si>
+  <si>
+    <t>ok_prescribed</t>
+  </si>
+  <si>
+    <t>open_cover_test_distance</t>
+  </si>
+  <si>
+    <t>open cover distance</t>
+  </si>
+  <si>
+    <t>add values to cover distance</t>
+  </si>
+  <si>
+    <t>cover_distance_values</t>
+  </si>
+  <si>
+    <t>distance_values|ok_button</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1122,6 +1321,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66FF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,12 +1382,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1202,6 +1406,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1210,6 +1419,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF808000"/>
       <color rgb="FF66FF66"/>
     </mruColors>
   </colors>
@@ -1508,10 +1718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,7 +1752,7 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1561,7 +1771,7 @@
       <c r="A4" t="s">
         <v>227</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
@@ -1598,20 +1808,32 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G248"/>
+  <dimension ref="A1:G312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F251" sqref="F251"/>
+    <sheetView tabSelected="1" topLeftCell="H290" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H290" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,4577 +2068,5809 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>5</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="D22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>3</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>3</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="D27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="D28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>3</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G30" s="8"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="D31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>1</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G33" s="5"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="D34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G36" s="5"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G37" s="5"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="5" t="s">
+      <c r="D38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <v>3</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12" t="s">
+      <c r="E43" s="11"/>
+      <c r="F43" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="12"/>
+      <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12" t="s">
+      <c r="C44" s="11"/>
+      <c r="D44" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12" t="s">
+      <c r="E44" s="11"/>
+      <c r="F44" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G44" s="12"/>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G45" s="12"/>
+      <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G46" s="12"/>
+      <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G47" s="12"/>
+      <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G48" s="12"/>
+      <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="12"/>
+      <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E50" s="12" t="s">
+      <c r="D50" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" s="12" t="s">
+      <c r="D51" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="11">
         <v>5</v>
       </c>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D53" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E53" s="12" t="s">
+      <c r="D53" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="11">
         <v>3</v>
       </c>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E55" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D56" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E56" s="12" t="s">
+      <c r="D56" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D57" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E57" s="12" t="s">
+      <c r="D57" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D58" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E58" s="12" t="s">
+      <c r="D58" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D59" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E59" s="12" t="s">
+      <c r="D59" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="11">
         <v>3</v>
       </c>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D61" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E61" s="12" t="s">
+      <c r="D61" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="11">
         <v>5</v>
       </c>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D63" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E63" s="12" t="s">
+      <c r="D63" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="11">
         <v>5</v>
       </c>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D65" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E65" s="12" t="s">
+      <c r="D65" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="E66" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="E67" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="F67" s="12" t="s">
+      <c r="F67" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="G67" s="12"/>
+      <c r="G67" s="11"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="11">
         <v>3</v>
       </c>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D69" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E69" s="12" t="s">
+      <c r="D69" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D70" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E70" s="12" t="s">
+      <c r="D70" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="D71" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E71" s="12" t="s">
+      <c r="E71" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D72" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="E72" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="F72" s="12" t="s">
+      <c r="F72" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="G72" s="12"/>
+      <c r="G72" s="11"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D73" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E73" s="12" t="s">
+      <c r="D73" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D74" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E74" s="11">
         <v>3</v>
       </c>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D75" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E75" s="12" t="s">
+      <c r="D75" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C76" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="D76" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E76" s="11">
         <v>3</v>
       </c>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="D77" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="E77" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D78" s="12" t="s">
+      <c r="D78" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E78" s="12" t="s">
+      <c r="E78" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C79" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D79" s="12" t="s">
+      <c r="D79" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E79" s="12" t="s">
+      <c r="E79" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="F79" s="12" t="s">
+      <c r="F79" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="G79" s="12"/>
+      <c r="G79" s="11"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="D80" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="E80" s="12" t="s">
+      <c r="E80" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C81" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D81" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E81" s="12" t="s">
+      <c r="D81" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C82" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D82" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E82" s="11">
         <v>3</v>
       </c>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C83" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D83" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E83" s="12" t="s">
+      <c r="D83" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C84" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D84" s="12" t="s">
+      <c r="D84" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="E84" s="12" t="s">
+      <c r="E84" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C85" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D85" s="12" t="s">
+      <c r="D85" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E85" s="12" t="s">
+      <c r="E85" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="F85" s="13" t="s">
+      <c r="F85" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G85" s="12"/>
+      <c r="G85" s="11"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C86" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D86" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E86" s="12" t="s">
+      <c r="D86" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C87" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D87" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E87" s="12" t="s">
+      <c r="D87" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E87" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C88" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="D88" s="12" t="s">
+      <c r="D88" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E88" s="12" t="s">
+      <c r="E88" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="F88" s="14" t="s">
+      <c r="F88" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="G88" s="12"/>
+      <c r="G88" s="11"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C89" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D89" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E89" s="12" t="s">
+      <c r="D89" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C90" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="D90" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E90" s="12" t="s">
+      <c r="D90" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E90" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
+      <c r="A91" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="C91" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="D91" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E91" s="12" t="s">
+      <c r="D91" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E91" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C92" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="D92" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E92" s="12" t="s">
+      <c r="D92" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E92" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="C93" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="D93" s="12" t="s">
+      <c r="D93" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E93" s="12" t="s">
+      <c r="E93" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="F93" s="12" t="s">
+      <c r="F93" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="G93" s="12"/>
+      <c r="G93" s="11"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C94" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="D94" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E94" s="12" t="s">
+      <c r="D94" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E94" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="C95" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D95" s="12" t="s">
+      <c r="D95" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E95" s="12">
+      <c r="E95" s="11">
         <v>3</v>
       </c>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="C96" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D96" s="12" t="s">
+      <c r="D96" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C97" s="16" t="s">
+      <c r="C97" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D97" s="16" t="s">
+      <c r="D97" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16" t="s">
+      <c r="E97" s="15"/>
+      <c r="F97" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G97" s="16"/>
+      <c r="G97" s="15"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16" t="s">
+      <c r="C98" s="15"/>
+      <c r="D98" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16" t="s">
+      <c r="E98" s="15"/>
+      <c r="F98" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G98" s="16"/>
+      <c r="G98" s="15"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C99" s="16" t="s">
+      <c r="C99" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D99" s="16" t="s">
+      <c r="D99" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F99" s="16" t="s">
+      <c r="F99" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G99" s="16"/>
+      <c r="G99" s="15"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="16" t="s">
+      <c r="A100" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C100" s="16" t="s">
+      <c r="C100" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D100" s="16" t="s">
+      <c r="D100" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F100" s="16" t="s">
+      <c r="F100" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G100" s="16"/>
+      <c r="G100" s="15"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="B101" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C101" s="16" t="s">
+      <c r="C101" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D101" s="16" t="s">
+      <c r="D101" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F101" s="16" t="s">
+      <c r="F101" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G101" s="16"/>
+      <c r="G101" s="15"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="16" t="s">
+      <c r="A102" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C102" s="16" t="s">
+      <c r="C102" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D102" s="16" t="s">
+      <c r="D102" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F102" s="16" t="s">
+      <c r="F102" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G102" s="16"/>
+      <c r="G102" s="15"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="16" t="s">
+      <c r="A103" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C103" s="16" t="s">
+      <c r="C103" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D103" s="16" t="s">
+      <c r="D103" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F103" s="16" t="s">
+      <c r="F103" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G103" s="16"/>
+      <c r="G103" s="15"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="16" t="s">
+      <c r="A104" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C104" s="16" t="s">
+      <c r="C104" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D104" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E104" s="16" t="s">
+      <c r="D104" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E104" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="16" t="s">
+      <c r="A105" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B105" s="16" t="s">
+      <c r="B105" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C105" s="16" t="s">
+      <c r="C105" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D105" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E105" s="16" t="s">
+      <c r="D105" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E105" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="16" t="s">
+      <c r="A106" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C106" s="16" t="s">
+      <c r="C106" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D106" s="16" t="s">
+      <c r="D106" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E106" s="16">
+      <c r="E106" s="15">
         <v>5</v>
       </c>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="16" t="s">
+      <c r="A107" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C107" s="16" t="s">
+      <c r="C107" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D107" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E107" s="16" t="s">
+      <c r="D107" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E107" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="16" t="s">
+      <c r="A108" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C108" s="16" t="s">
+      <c r="C108" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D108" s="16" t="s">
+      <c r="D108" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E108" s="16">
+      <c r="E108" s="15">
         <v>3</v>
       </c>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="16" t="s">
+      <c r="A109" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C109" s="16" t="s">
+      <c r="C109" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D109" s="16" t="s">
+      <c r="D109" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="16" t="s">
+      <c r="A110" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C110" s="16" t="s">
+      <c r="C110" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D110" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E110" s="16" t="s">
+      <c r="D110" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E110" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="F110" s="16"/>
-      <c r="G110" s="16"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="16" t="s">
+      <c r="A111" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C111" s="16" t="s">
+      <c r="C111" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="D111" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E111" s="16" t="s">
+      <c r="D111" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E111" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="16" t="s">
+      <c r="A112" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C112" s="16" t="s">
+      <c r="C112" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D112" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E112" s="16" t="s">
+      <c r="D112" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E112" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="16" t="s">
+      <c r="A113" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B113" s="16" t="s">
+      <c r="B113" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C113" s="16" t="s">
+      <c r="C113" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D113" s="16" t="s">
+      <c r="D113" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E113" s="16">
+      <c r="E113" s="15">
         <v>3</v>
       </c>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="16" t="s">
+      <c r="A114" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C114" s="16" t="s">
+      <c r="C114" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="D114" s="16" t="s">
+      <c r="D114" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="16" t="s">
+      <c r="A115" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B115" s="16" t="s">
+      <c r="B115" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C115" s="16" t="s">
+      <c r="C115" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="D115" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E115" s="16" t="s">
+      <c r="D115" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E115" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="F115" s="16"/>
-      <c r="G115" s="16"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="16" t="s">
+      <c r="A116" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C116" s="16" t="s">
+      <c r="C116" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="D116" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E116" s="16" t="s">
+      <c r="D116" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E116" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="16" t="s">
+      <c r="A117" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="B117" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C117" s="16" t="s">
+      <c r="C117" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="D117" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E117" s="16" t="s">
+      <c r="D117" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E117" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="16" t="s">
+      <c r="A118" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C118" s="16" t="s">
+      <c r="C118" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="D118" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E118" s="16" t="s">
+      <c r="D118" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E118" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="16" t="s">
+      <c r="A119" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B119" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C119" s="16" t="s">
+      <c r="C119" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="D119" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E119" s="16" t="s">
+      <c r="D119" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E119" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="16" t="s">
+      <c r="A120" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B120" s="16" t="s">
+      <c r="B120" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C120" s="16" t="s">
+      <c r="C120" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="D120" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E120" s="16" t="s">
+      <c r="D120" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E120" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="F120" s="16"/>
-      <c r="G120" s="16"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="16" t="s">
+      <c r="A121" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C121" s="16" t="s">
+      <c r="C121" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="D121" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E121" s="16" t="s">
+      <c r="D121" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E121" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="16" t="s">
+      <c r="A122" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B122" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C122" s="16" t="s">
+      <c r="C122" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="D122" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E122" s="16" t="s">
+      <c r="D122" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E122" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="F122" s="16"/>
-      <c r="G122" s="16"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="16" t="s">
+      <c r="A123" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B123" s="16" t="s">
+      <c r="B123" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C123" s="16" t="s">
+      <c r="C123" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D123" s="16" t="s">
+      <c r="D123" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E123" s="16">
+      <c r="E123" s="15">
         <v>3</v>
       </c>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="16" t="s">
+      <c r="A124" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="B124" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C124" s="16" t="s">
+      <c r="C124" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D124" s="16" t="s">
+      <c r="D124" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E124" s="16"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B125" s="17" t="s">
+      <c r="A125" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B125" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C125" s="17" t="s">
+      <c r="C125" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D125" s="17" t="s">
+      <c r="D125" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E125" s="17"/>
-      <c r="F125" s="17" t="s">
+      <c r="E125" s="16"/>
+      <c r="F125" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G125" s="17"/>
+      <c r="G125" s="16"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B126" s="17" t="s">
+      <c r="A126" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B126" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C126" s="17"/>
-      <c r="D126" s="17" t="s">
+      <c r="C126" s="16"/>
+      <c r="D126" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E126" s="17"/>
-      <c r="F126" s="17" t="s">
+      <c r="E126" s="16"/>
+      <c r="F126" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G126" s="17"/>
+      <c r="G126" s="16"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B127" s="17" t="s">
+      <c r="A127" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B127" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C127" s="17" t="s">
+      <c r="C127" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D127" s="17" t="s">
+      <c r="D127" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E127" s="17" t="s">
+      <c r="E127" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F127" s="17" t="s">
+      <c r="F127" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="G127" s="17"/>
+      <c r="G127" s="16"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B128" s="17" t="s">
+      <c r="A128" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B128" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C128" s="17" t="s">
+      <c r="C128" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D128" s="17" t="s">
+      <c r="D128" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E128" s="17" t="s">
+      <c r="E128" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F128" s="17" t="s">
+      <c r="F128" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G128" s="17"/>
+      <c r="G128" s="16"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B129" s="17" t="s">
+      <c r="A129" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B129" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C129" s="17" t="s">
+      <c r="C129" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D129" s="17" t="s">
+      <c r="D129" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E129" s="17" t="s">
+      <c r="E129" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F129" s="17" t="s">
+      <c r="F129" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="G129" s="17"/>
+      <c r="G129" s="16"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B130" s="17" t="s">
+      <c r="A130" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B130" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C130" s="17" t="s">
+      <c r="C130" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D130" s="17" t="s">
+      <c r="D130" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E130" s="17" t="s">
+      <c r="E130" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F130" s="17" t="s">
+      <c r="F130" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G130" s="17"/>
+      <c r="G130" s="16"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B131" s="17" t="s">
+      <c r="A131" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B131" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C131" s="17" t="s">
+      <c r="C131" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D131" s="17" t="s">
+      <c r="D131" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E131" s="17" t="s">
+      <c r="E131" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F131" s="17" t="s">
+      <c r="F131" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G131" s="17"/>
+      <c r="G131" s="16"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B132" s="17" t="s">
+      <c r="A132" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B132" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C132" s="17" t="s">
+      <c r="C132" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D132" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E132" s="17" t="s">
+      <c r="D132" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E132" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F132" s="17"/>
-      <c r="G132" s="17"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="16"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B133" s="17" t="s">
+      <c r="A133" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B133" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C133" s="17" t="s">
+      <c r="C133" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D133" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E133" s="17" t="s">
+      <c r="D133" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E133" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F133" s="17"/>
-      <c r="G133" s="17"/>
+      <c r="F133" s="16"/>
+      <c r="G133" s="16"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B134" s="17" t="s">
+      <c r="A134" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B134" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C134" s="17" t="s">
+      <c r="C134" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D134" s="17" t="s">
+      <c r="D134" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E134" s="17">
+      <c r="E134" s="16">
         <v>5</v>
       </c>
-      <c r="F134" s="17"/>
-      <c r="G134" s="17"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="16"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B135" s="17" t="s">
+      <c r="A135" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B135" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C135" s="17" t="s">
+      <c r="C135" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D135" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E135" s="17" t="s">
+      <c r="D135" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E135" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F135" s="17"/>
-      <c r="G135" s="17"/>
+      <c r="F135" s="16"/>
+      <c r="G135" s="16"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B136" s="17" t="s">
+      <c r="A136" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B136" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C136" s="17" t="s">
+      <c r="C136" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D136" s="17" t="s">
+      <c r="D136" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E136" s="17">
+      <c r="E136" s="16">
         <v>3</v>
       </c>
-      <c r="F136" s="17"/>
-      <c r="G136" s="17"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="16"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B137" s="17" t="s">
+      <c r="A137" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B137" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C137" s="17" t="s">
+      <c r="C137" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D137" s="17" t="s">
+      <c r="D137" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="E137" s="17" t="s">
+      <c r="E137" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="F137" s="17"/>
-      <c r="G137" s="17"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="16"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B138" s="17" t="s">
+      <c r="A138" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B138" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C138" s="17" t="s">
+      <c r="C138" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D138" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E138" s="17" t="s">
+      <c r="D138" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E138" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="F138" s="17"/>
-      <c r="G138" s="17"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="16"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B139" s="17" t="s">
+      <c r="A139" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B139" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C139" s="17" t="s">
+      <c r="C139" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D139" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E139" s="17" t="s">
+      <c r="D139" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E139" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="F139" s="17"/>
-      <c r="G139" s="17"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B140" s="17" t="s">
+      <c r="A140" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B140" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C140" s="17" t="s">
+      <c r="C140" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D140" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E140" s="17" t="s">
+      <c r="D140" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E140" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="F140" s="17"/>
-      <c r="G140" s="17"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B141" s="17" t="s">
+      <c r="A141" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B141" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C141" s="17" t="s">
+      <c r="C141" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D141" s="17" t="s">
+      <c r="D141" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E141" s="17">
+      <c r="E141" s="16">
         <v>3</v>
       </c>
-      <c r="F141" s="17"/>
-      <c r="G141" s="17"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B142" s="17" t="s">
+      <c r="A142" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B142" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C142" s="17" t="s">
+      <c r="C142" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="D142" s="17" t="s">
+      <c r="D142" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="E142" s="17" t="s">
+      <c r="E142" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="F142" s="17"/>
-      <c r="G142" s="17"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="16"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B143" s="17" t="s">
+      <c r="A143" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B143" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C143" s="17" t="s">
+      <c r="C143" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="D143" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E143" s="17" t="s">
+      <c r="D143" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E143" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="F143" s="17"/>
-      <c r="G143" s="17"/>
+      <c r="F143" s="16"/>
+      <c r="G143" s="16"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B144" s="17" t="s">
+      <c r="A144" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B144" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C144" s="17" t="s">
+      <c r="C144" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D144" s="17" t="s">
+      <c r="D144" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E144" s="17">
+      <c r="E144" s="16">
         <v>3</v>
       </c>
-      <c r="F144" s="17"/>
-      <c r="G144" s="17"/>
+      <c r="F144" s="16"/>
+      <c r="G144" s="16"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B145" s="17" t="s">
+      <c r="A145" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B145" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C145" s="17" t="s">
+      <c r="C145" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="D145" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E145" s="17" t="s">
+      <c r="D145" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E145" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="F145" s="17"/>
-      <c r="G145" s="17"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="16"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B146" s="17" t="s">
+      <c r="A146" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B146" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C146" s="17" t="s">
+      <c r="C146" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="D146" s="17" t="s">
+      <c r="D146" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E146" s="17" t="s">
+      <c r="E146" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="F146" s="17" t="s">
+      <c r="F146" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="G146" s="17"/>
+      <c r="G146" s="16"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B147" s="17" t="s">
+      <c r="A147" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B147" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C147" s="17" t="s">
+      <c r="C147" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="D147" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E147" s="17" t="s">
+      <c r="D147" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E147" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="F147" s="17"/>
-      <c r="G147" s="17"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="16"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B148" s="17" t="s">
+      <c r="A148" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B148" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C148" s="17" t="s">
+      <c r="C148" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D148" s="17" t="s">
+      <c r="D148" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E148" s="17">
+      <c r="E148" s="16">
         <v>2</v>
       </c>
-      <c r="F148" s="17"/>
-      <c r="G148" s="17"/>
+      <c r="F148" s="16"/>
+      <c r="G148" s="16"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B149" s="17" t="s">
+      <c r="A149" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B149" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C149" s="17" t="s">
+      <c r="C149" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="D149" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E149" s="17" t="s">
+      <c r="D149" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E149" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="F149" s="17"/>
-      <c r="G149" s="17"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="16"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B150" s="17" t="s">
+      <c r="A150" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B150" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C150" s="17" t="s">
+      <c r="C150" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D150" s="17" t="s">
+      <c r="D150" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E150" s="17">
+      <c r="E150" s="16">
         <v>2</v>
       </c>
-      <c r="F150" s="17"/>
-      <c r="G150" s="17"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="16"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B151" s="17" t="s">
+      <c r="A151" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B151" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C151" s="17" t="s">
+      <c r="C151" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="D151" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E151" s="17" t="s">
+      <c r="D151" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E151" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="F151" s="17"/>
-      <c r="G151" s="17"/>
+      <c r="F151" s="16"/>
+      <c r="G151" s="16"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B152" s="17" t="s">
+      <c r="A152" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B152" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C152" s="17" t="s">
+      <c r="C152" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D152" s="17" t="s">
+      <c r="D152" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E152" s="17">
+      <c r="E152" s="16">
         <v>1</v>
       </c>
-      <c r="F152" s="17"/>
-      <c r="G152" s="17"/>
+      <c r="F152" s="16"/>
+      <c r="G152" s="16"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B153" s="17" t="s">
+      <c r="A153" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B153" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C153" s="17" t="s">
+      <c r="C153" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="D153" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E153" s="17" t="s">
+      <c r="D153" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E153" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="F153" s="17"/>
-      <c r="G153" s="17"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="16"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B154" s="17" t="s">
+      <c r="A154" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B154" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C154" s="17" t="s">
+      <c r="C154" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D154" s="17" t="s">
+      <c r="D154" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E154" s="17">
+      <c r="E154" s="16">
         <v>1</v>
       </c>
-      <c r="F154" s="17"/>
-      <c r="G154" s="17"/>
+      <c r="F154" s="16"/>
+      <c r="G154" s="16"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B155" s="17" t="s">
+      <c r="A155" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B155" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C155" s="17" t="s">
+      <c r="C155" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="D155" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E155" s="17" t="s">
+      <c r="D155" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E155" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="F155" s="17"/>
-      <c r="G155" s="17"/>
+      <c r="F155" s="16"/>
+      <c r="G155" s="16"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B156" s="17" t="s">
+      <c r="A156" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B156" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C156" s="17" t="s">
+      <c r="C156" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D156" s="17" t="s">
+      <c r="D156" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E156" s="17">
+      <c r="E156" s="16">
         <v>1</v>
       </c>
-      <c r="F156" s="17"/>
-      <c r="G156" s="17"/>
+      <c r="F156" s="16"/>
+      <c r="G156" s="16"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B157" s="17" t="s">
+      <c r="A157" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B157" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C157" s="17" t="s">
+      <c r="C157" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="D157" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E157" s="17" t="s">
+      <c r="D157" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E157" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="F157" s="17"/>
-      <c r="G157" s="17"/>
+      <c r="F157" s="16"/>
+      <c r="G157" s="16"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B158" s="17" t="s">
+      <c r="A158" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B158" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C158" s="17" t="s">
+      <c r="C158" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D158" s="17" t="s">
+      <c r="D158" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E158" s="17">
+      <c r="E158" s="16">
         <v>1</v>
       </c>
-      <c r="F158" s="17"/>
-      <c r="G158" s="17"/>
+      <c r="F158" s="16"/>
+      <c r="G158" s="16"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B159" s="17" t="s">
+      <c r="A159" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B159" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C159" s="17" t="s">
+      <c r="C159" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="D159" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E159" s="17" t="s">
+      <c r="D159" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E159" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="F159" s="17"/>
-      <c r="G159" s="17"/>
+      <c r="F159" s="16"/>
+      <c r="G159" s="16"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B160" s="17" t="s">
+      <c r="A160" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B160" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C160" s="17" t="s">
+      <c r="C160" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D160" s="17" t="s">
+      <c r="D160" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E160" s="17">
+      <c r="E160" s="16">
         <v>1</v>
       </c>
-      <c r="F160" s="17"/>
-      <c r="G160" s="17"/>
+      <c r="F160" s="16"/>
+      <c r="G160" s="16"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B161" s="17" t="s">
+      <c r="A161" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B161" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C161" s="17" t="s">
+      <c r="C161" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="D161" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E161" s="17" t="s">
+      <c r="D161" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E161" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="F161" s="17"/>
-      <c r="G161" s="17"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="16"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B162" s="17" t="s">
+      <c r="A162" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B162" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C162" s="17" t="s">
+      <c r="C162" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="D162" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E162" s="17" t="s">
+      <c r="D162" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E162" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="F162" s="17"/>
-      <c r="G162" s="17"/>
+      <c r="F162" s="16"/>
+      <c r="G162" s="16"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B163" s="17" t="s">
+      <c r="A163" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B163" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C163" s="17" t="s">
+      <c r="C163" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="D163" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E163" s="17" t="s">
+      <c r="D163" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E163" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="F163" s="17"/>
-      <c r="G163" s="17"/>
+      <c r="F163" s="16"/>
+      <c r="G163" s="16"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B164" s="17" t="s">
+      <c r="A164" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B164" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C164" s="17" t="s">
+      <c r="C164" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="D164" s="17" t="s">
+      <c r="D164" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E164" s="17" t="s">
+      <c r="E164" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="F164" s="17" t="s">
+      <c r="F164" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="G164" s="17"/>
+      <c r="G164" s="16"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B165" s="17" t="s">
+      <c r="A165" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B165" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="C165" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="D165" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E165" s="17" t="s">
+      <c r="D165" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E165" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="F165" s="17"/>
-      <c r="G165" s="17"/>
+      <c r="F165" s="16"/>
+      <c r="G165" s="16"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B166" s="17" t="s">
+      <c r="A166" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B166" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C166" s="17" t="s">
+      <c r="C166" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D166" s="17" t="s">
+      <c r="D166" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E166" s="17">
+      <c r="E166" s="16">
         <v>2</v>
       </c>
-      <c r="F166" s="17"/>
-      <c r="G166" s="17"/>
+      <c r="F166" s="16"/>
+      <c r="G166" s="16"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B167" s="17" t="s">
+      <c r="A167" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B167" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C167" s="17" t="s">
+      <c r="C167" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="D167" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E167" s="17" t="s">
+      <c r="D167" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E167" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="F167" s="17"/>
-      <c r="G167" s="17"/>
+      <c r="F167" s="16"/>
+      <c r="G167" s="16"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B168" s="17" t="s">
+      <c r="A168" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B168" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C168" s="17" t="s">
+      <c r="C168" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D168" s="17" t="s">
+      <c r="D168" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E168" s="17">
+      <c r="E168" s="16">
         <v>2</v>
       </c>
-      <c r="F168" s="17"/>
-      <c r="G168" s="17"/>
+      <c r="F168" s="16"/>
+      <c r="G168" s="16"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B169" s="17" t="s">
+      <c r="A169" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B169" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C169" s="17" t="s">
+      <c r="C169" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="D169" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E169" s="17" t="s">
+      <c r="D169" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E169" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="F169" s="17"/>
-      <c r="G169" s="17"/>
+      <c r="F169" s="16"/>
+      <c r="G169" s="16"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B170" s="17" t="s">
+      <c r="A170" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B170" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C170" s="17" t="s">
+      <c r="C170" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D170" s="17" t="s">
+      <c r="D170" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E170" s="17">
+      <c r="E170" s="16">
         <v>1</v>
       </c>
-      <c r="F170" s="17"/>
-      <c r="G170" s="17"/>
+      <c r="F170" s="16"/>
+      <c r="G170" s="16"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B171" s="17" t="s">
+      <c r="A171" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B171" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C171" s="17" t="s">
+      <c r="C171" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="D171" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E171" s="17" t="s">
+      <c r="D171" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E171" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="F171" s="17"/>
-      <c r="G171" s="17"/>
+      <c r="F171" s="16"/>
+      <c r="G171" s="16"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B172" s="17" t="s">
+      <c r="A172" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B172" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C172" s="17" t="s">
+      <c r="C172" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D172" s="17" t="s">
+      <c r="D172" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E172" s="17">
+      <c r="E172" s="16">
         <v>1</v>
       </c>
-      <c r="F172" s="17"/>
-      <c r="G172" s="17"/>
+      <c r="F172" s="16"/>
+      <c r="G172" s="16"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B173" s="17" t="s">
+      <c r="A173" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B173" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C173" s="17" t="s">
+      <c r="C173" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="D173" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E173" s="17" t="s">
+      <c r="D173" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E173" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="F173" s="17"/>
-      <c r="G173" s="17"/>
+      <c r="F173" s="16"/>
+      <c r="G173" s="16"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B174" s="17" t="s">
+      <c r="A174" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B174" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C174" s="17" t="s">
+      <c r="C174" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D174" s="17" t="s">
+      <c r="D174" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E174" s="17">
+      <c r="E174" s="16">
         <v>1</v>
       </c>
-      <c r="F174" s="17"/>
-      <c r="G174" s="17"/>
+      <c r="F174" s="16"/>
+      <c r="G174" s="16"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B175" s="17" t="s">
+      <c r="A175" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B175" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C175" s="17" t="s">
+      <c r="C175" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="D175" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E175" s="17" t="s">
+      <c r="D175" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E175" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="F175" s="17"/>
-      <c r="G175" s="17"/>
+      <c r="F175" s="16"/>
+      <c r="G175" s="16"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B176" s="17" t="s">
+      <c r="A176" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B176" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C176" s="17" t="s">
+      <c r="C176" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D176" s="17" t="s">
+      <c r="D176" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E176" s="17">
+      <c r="E176" s="16">
         <v>1</v>
       </c>
-      <c r="F176" s="17"/>
-      <c r="G176" s="17"/>
+      <c r="F176" s="16"/>
+      <c r="G176" s="16"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B177" s="17" t="s">
+      <c r="A177" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B177" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C177" s="17" t="s">
+      <c r="C177" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="D177" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E177" s="17" t="s">
+      <c r="D177" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E177" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="F177" s="17"/>
-      <c r="G177" s="17"/>
+      <c r="F177" s="16"/>
+      <c r="G177" s="16"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B178" s="17" t="s">
+      <c r="A178" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B178" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C178" s="17" t="s">
+      <c r="C178" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D178" s="17" t="s">
+      <c r="D178" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E178" s="17">
+      <c r="E178" s="16">
         <v>1</v>
       </c>
-      <c r="F178" s="17"/>
-      <c r="G178" s="17"/>
+      <c r="F178" s="16"/>
+      <c r="G178" s="16"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B179" s="17" t="s">
+      <c r="A179" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B179" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C179" s="17" t="s">
+      <c r="C179" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="D179" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E179" s="17" t="s">
+      <c r="D179" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E179" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="F179" s="17"/>
-      <c r="G179" s="17"/>
+      <c r="F179" s="16"/>
+      <c r="G179" s="16"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B180" s="17" t="s">
+      <c r="A180" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B180" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C180" s="17" t="s">
+      <c r="C180" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="D180" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E180" s="17" t="s">
+      <c r="D180" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E180" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="F180" s="17"/>
-      <c r="G180" s="17"/>
+      <c r="F180" s="16"/>
+      <c r="G180" s="16"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B181" s="17" t="s">
+      <c r="A181" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B181" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C181" s="17" t="s">
+      <c r="C181" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="D181" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E181" s="17" t="s">
+      <c r="D181" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E181" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="F181" s="17"/>
-      <c r="G181" s="17"/>
+      <c r="F181" s="16"/>
+      <c r="G181" s="16"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B182" s="17" t="s">
+      <c r="A182" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B182" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C182" s="17" t="s">
+      <c r="C182" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="D182" s="17" t="s">
+      <c r="D182" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="E182" s="17" t="s">
+      <c r="E182" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="F182" s="17"/>
-      <c r="G182" s="17"/>
+      <c r="F182" s="16"/>
+      <c r="G182" s="16"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B183" s="17" t="s">
+      <c r="A183" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B183" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C183" s="17" t="s">
+      <c r="C183" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="D183" s="17" t="s">
+      <c r="D183" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E183" s="17" t="s">
+      <c r="E183" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="F183" s="17" t="s">
+      <c r="F183" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="G183" s="17"/>
+      <c r="G183" s="16"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B184" s="17" t="s">
+      <c r="A184" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B184" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C184" s="17" t="s">
+      <c r="C184" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="D184" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E184" s="17" t="s">
+      <c r="D184" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E184" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="F184" s="17"/>
-      <c r="G184" s="17"/>
+      <c r="F184" s="16"/>
+      <c r="G184" s="16"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B185" s="17" t="s">
+      <c r="A185" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B185" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C185" s="17" t="s">
+      <c r="C185" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="D185" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E185" s="17" t="s">
+      <c r="D185" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E185" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F185" s="17"/>
-      <c r="G185" s="17"/>
+      <c r="F185" s="16"/>
+      <c r="G185" s="16"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B186" s="17" t="s">
+      <c r="A186" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B186" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="C186" s="17" t="s">
+      <c r="C186" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="D186" s="17" t="s">
+      <c r="D186" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="E186" s="17" t="s">
+      <c r="E186" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="F186" s="17"/>
-      <c r="G186" s="17"/>
+      <c r="F186" s="16"/>
+      <c r="G186" s="16"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B187" s="17" t="s">
+      <c r="A187" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B187" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C187" s="17" t="s">
+      <c r="C187" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="D187" s="17" t="s">
+      <c r="D187" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E187" s="17" t="s">
+      <c r="E187" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="F187" s="17" t="s">
+      <c r="F187" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="G187" s="17"/>
+      <c r="G187" s="16"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B188" s="17" t="s">
+      <c r="A188" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B188" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C188" s="17" t="s">
+      <c r="C188" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="D188" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E188" s="17" t="s">
+      <c r="D188" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E188" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="F188" s="17"/>
-      <c r="G188" s="17"/>
+      <c r="F188" s="16"/>
+      <c r="G188" s="16"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B189" s="17" t="s">
+      <c r="A189" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B189" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C189" s="17" t="s">
+      <c r="C189" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="D189" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E189" s="18" t="s">
+      <c r="D189" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E189" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="F189" s="17"/>
-      <c r="G189" s="17"/>
+      <c r="F189" s="16"/>
+      <c r="G189" s="16"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B190" s="17" t="s">
+      <c r="A190" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B190" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="C190" s="17" t="s">
+      <c r="C190" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="D190" s="17" t="s">
+      <c r="D190" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="E190" s="17" t="s">
+      <c r="E190" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="F190" s="17"/>
-      <c r="G190" s="17"/>
+      <c r="F190" s="16"/>
+      <c r="G190" s="16"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B191" s="17" t="s">
+      <c r="A191" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B191" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C191" s="17" t="s">
+      <c r="C191" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="D191" s="17" t="s">
+      <c r="D191" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E191" s="17" t="s">
+      <c r="E191" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="F191" s="17" t="s">
+      <c r="F191" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="G191" s="17"/>
+      <c r="G191" s="16"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B192" s="17" t="s">
+      <c r="A192" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B192" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C192" s="17" t="s">
+      <c r="C192" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="D192" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E192" s="17" t="s">
+      <c r="D192" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E192" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="F192" s="17"/>
-      <c r="G192" s="17"/>
+      <c r="F192" s="16"/>
+      <c r="G192" s="16"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B193" s="17" t="s">
+      <c r="A193" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B193" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="C193" s="17" t="s">
+      <c r="C193" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="D193" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E193" s="18" t="s">
+      <c r="D193" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E193" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="F193" s="17"/>
-      <c r="G193" s="17"/>
+      <c r="F193" s="16"/>
+      <c r="G193" s="16"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B194" s="17" t="s">
+      <c r="A194" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B194" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C194" s="17" t="s">
+      <c r="C194" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="D194" s="17" t="s">
+      <c r="D194" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="E194" s="17" t="s">
+      <c r="E194" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="F194" s="17"/>
-      <c r="G194" s="17"/>
+      <c r="F194" s="16"/>
+      <c r="G194" s="16"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B195" s="17" t="s">
+      <c r="A195" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B195" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="C195" s="17" t="s">
+      <c r="C195" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="D195" s="17" t="s">
+      <c r="D195" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E195" s="17" t="s">
+      <c r="E195" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="F195" s="17" t="s">
+      <c r="F195" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="G195" s="17"/>
+      <c r="G195" s="16"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B196" s="17" t="s">
+      <c r="A196" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B196" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C196" s="17" t="s">
+      <c r="C196" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="D196" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E196" s="17" t="s">
+      <c r="D196" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E196" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="F196" s="17"/>
-      <c r="G196" s="17"/>
+      <c r="F196" s="16"/>
+      <c r="G196" s="16"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B197" s="17" t="s">
+      <c r="A197" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B197" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="C197" s="17" t="s">
+      <c r="C197" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="D197" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E197" s="17" t="s">
+      <c r="D197" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E197" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="F197" s="17"/>
-      <c r="G197" s="17"/>
+      <c r="F197" s="16"/>
+      <c r="G197" s="16"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B198" s="17" t="s">
+      <c r="A198" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B198" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C198" s="17" t="s">
+      <c r="C198" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D198" s="17" t="s">
+      <c r="D198" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E198" s="17">
+      <c r="E198" s="16">
         <v>2</v>
       </c>
-      <c r="F198" s="17"/>
-      <c r="G198" s="17"/>
+      <c r="F198" s="16"/>
+      <c r="G198" s="16"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B199" s="17" t="s">
+      <c r="A199" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B199" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="C199" s="17" t="s">
+      <c r="C199" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="D199" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E199" s="17" t="s">
+      <c r="D199" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E199" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="F199" s="17"/>
-      <c r="G199" s="17"/>
+      <c r="F199" s="16"/>
+      <c r="G199" s="16"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B200" s="17" t="s">
+      <c r="A200" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B200" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="C200" s="17" t="s">
+      <c r="C200" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="D200" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E200" s="17" t="s">
+      <c r="D200" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E200" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="F200" s="17"/>
-      <c r="G200" s="17"/>
+      <c r="F200" s="16"/>
+      <c r="G200" s="16"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B201" s="17" t="s">
+      <c r="A201" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B201" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C201" s="17" t="s">
+      <c r="C201" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="D201" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E201" s="17" t="s">
+      <c r="D201" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E201" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="F201" s="17"/>
-      <c r="G201" s="17"/>
+      <c r="F201" s="16"/>
+      <c r="G201" s="16"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B202" s="17" t="s">
+      <c r="A202" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B202" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="C202" s="17" t="s">
+      <c r="C202" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="D202" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E202" s="17" t="s">
+      <c r="D202" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E202" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="F202" s="17"/>
-      <c r="G202" s="17"/>
+      <c r="F202" s="16"/>
+      <c r="G202" s="16"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B203" s="17" t="s">
+      <c r="A203" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B203" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="C203" s="17" t="s">
+      <c r="C203" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="D203" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E203" s="17" t="s">
+      <c r="D203" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E203" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="F203" s="17"/>
-      <c r="G203" s="17"/>
+      <c r="F203" s="16"/>
+      <c r="G203" s="16"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B204" s="17" t="s">
+      <c r="A204" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B204" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C204" s="17" t="s">
+      <c r="C204" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D204" s="17" t="s">
+      <c r="D204" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E204" s="17">
+      <c r="E204" s="16">
         <v>2</v>
       </c>
-      <c r="F204" s="17"/>
-      <c r="G204" s="17"/>
+      <c r="F204" s="16"/>
+      <c r="G204" s="16"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B205" s="17" t="s">
+      <c r="A205" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B205" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="C205" s="17" t="s">
+      <c r="C205" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="D205" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E205" s="17" t="s">
+      <c r="D205" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E205" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="F205" s="17"/>
-      <c r="G205" s="17"/>
+      <c r="F205" s="16"/>
+      <c r="G205" s="16"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B206" s="17" t="s">
+      <c r="A206" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B206" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="C206" s="18" t="s">
+      <c r="C206" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="D206" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E206" s="19" t="s">
+      <c r="D206" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E206" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="F206" s="17"/>
-      <c r="G206" s="17"/>
+      <c r="F206" s="16"/>
+      <c r="G206" s="16"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B207" s="17" t="s">
+      <c r="A207" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B207" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C207" s="17" t="s">
+      <c r="C207" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D207" s="17" t="s">
+      <c r="D207" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E207" s="17">
+      <c r="E207" s="16">
         <v>2</v>
       </c>
-      <c r="F207" s="17"/>
-      <c r="G207" s="17"/>
+      <c r="F207" s="16"/>
+      <c r="G207" s="16"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B208" s="17" t="s">
+      <c r="A208" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B208" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C208" s="17" t="s">
+      <c r="C208" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D208" s="17" t="s">
+      <c r="D208" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E208" s="17"/>
-      <c r="F208" s="17"/>
-      <c r="G208" s="17"/>
+      <c r="E208" s="16"/>
+      <c r="F208" s="16"/>
+      <c r="G208" s="16"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="20" t="s">
+      <c r="A209" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B209" s="20" t="s">
+      <c r="B209" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C209" s="20" t="s">
+      <c r="C209" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D209" s="20" t="s">
+      <c r="D209" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E209" s="20"/>
-      <c r="F209" s="20" t="s">
+      <c r="E209" s="19"/>
+      <c r="F209" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G209" s="20"/>
+      <c r="G209" s="19"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="20" t="s">
+      <c r="A210" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B210" s="20" t="s">
+      <c r="B210" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C210" s="20"/>
-      <c r="D210" s="20" t="s">
+      <c r="C210" s="19"/>
+      <c r="D210" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E210" s="20"/>
-      <c r="F210" s="20" t="s">
+      <c r="E210" s="19"/>
+      <c r="F210" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G210" s="20"/>
+      <c r="G210" s="19"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="20" t="s">
+      <c r="A211" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B211" s="20" t="s">
+      <c r="B211" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C211" s="20" t="s">
+      <c r="C211" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D211" s="20" t="s">
+      <c r="D211" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E211" s="20" t="s">
+      <c r="E211" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F211" s="20" t="s">
+      <c r="F211" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="G211" s="20"/>
+      <c r="G211" s="19"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="20" t="s">
+      <c r="A212" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B212" s="20" t="s">
+      <c r="B212" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C212" s="20" t="s">
+      <c r="C212" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D212" s="20" t="s">
+      <c r="D212" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E212" s="20" t="s">
+      <c r="E212" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F212" s="20" t="s">
+      <c r="F212" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G212" s="20"/>
+      <c r="G212" s="19"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="20" t="s">
+      <c r="A213" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B213" s="20" t="s">
+      <c r="B213" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C213" s="20" t="s">
+      <c r="C213" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D213" s="20" t="s">
+      <c r="D213" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E213" s="20" t="s">
+      <c r="E213" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F213" s="20" t="s">
+      <c r="F213" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="G213" s="20"/>
+      <c r="G213" s="19"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B214" s="20" t="s">
+      <c r="B214" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C214" s="20" t="s">
+      <c r="C214" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D214" s="20" t="s">
+      <c r="D214" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E214" s="20" t="s">
+      <c r="E214" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F214" s="20" t="s">
+      <c r="F214" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G214" s="20"/>
+      <c r="G214" s="19"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="20" t="s">
+      <c r="A215" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B215" s="20" t="s">
+      <c r="B215" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C215" s="20" t="s">
+      <c r="C215" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D215" s="20" t="s">
+      <c r="D215" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E215" s="20" t="s">
+      <c r="E215" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F215" s="20" t="s">
+      <c r="F215" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G215" s="20"/>
+      <c r="G215" s="19"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="20" t="s">
+      <c r="A216" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B216" s="20" t="s">
+      <c r="B216" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C216" s="20" t="s">
+      <c r="C216" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D216" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E216" s="20" t="s">
+      <c r="D216" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E216" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F216" s="20"/>
-      <c r="G216" s="20"/>
+      <c r="F216" s="19"/>
+      <c r="G216" s="19"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="20" t="s">
+      <c r="A217" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B217" s="20" t="s">
+      <c r="B217" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C217" s="20" t="s">
+      <c r="C217" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D217" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E217" s="20" t="s">
+      <c r="D217" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E217" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F217" s="20"/>
-      <c r="G217" s="20"/>
+      <c r="F217" s="19"/>
+      <c r="G217" s="19"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="20" t="s">
+      <c r="A218" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B218" s="20" t="s">
+      <c r="B218" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C218" s="20" t="s">
+      <c r="C218" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D218" s="20" t="s">
+      <c r="D218" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E218" s="20">
+      <c r="E218" s="19">
         <v>5</v>
       </c>
-      <c r="F218" s="20"/>
-      <c r="G218" s="20"/>
+      <c r="F218" s="19"/>
+      <c r="G218" s="19"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="20" t="s">
+      <c r="A219" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B219" s="20" t="s">
+      <c r="B219" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C219" s="20" t="s">
+      <c r="C219" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D219" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E219" s="20" t="s">
+      <c r="D219" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E219" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F219" s="20"/>
-      <c r="G219" s="20"/>
+      <c r="F219" s="19"/>
+      <c r="G219" s="19"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="20" t="s">
+      <c r="A220" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B220" s="20" t="s">
+      <c r="B220" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C220" s="20" t="s">
+      <c r="C220" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D220" s="20" t="s">
+      <c r="D220" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E220" s="20">
+      <c r="E220" s="19">
         <v>3</v>
       </c>
-      <c r="F220" s="20"/>
-      <c r="G220" s="20"/>
+      <c r="F220" s="19"/>
+      <c r="G220" s="19"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="20" t="s">
+      <c r="A221" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B221" s="20" t="s">
+      <c r="B221" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C221" s="20" t="s">
+      <c r="C221" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D221" s="20" t="s">
+      <c r="D221" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="E221" s="20" t="s">
+      <c r="E221" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="F221" s="20"/>
-      <c r="G221" s="20"/>
+      <c r="F221" s="19"/>
+      <c r="G221" s="19"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="20" t="s">
+      <c r="A222" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B222" s="20" t="s">
+      <c r="B222" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C222" s="20" t="s">
+      <c r="C222" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D222" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E222" s="20" t="s">
+      <c r="D222" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E222" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F222" s="20"/>
-      <c r="G222" s="20"/>
+      <c r="F222" s="19"/>
+      <c r="G222" s="19"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="20" t="s">
+      <c r="A223" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B223" s="20" t="s">
+      <c r="B223" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C223" s="20" t="s">
+      <c r="C223" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="D223" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E223" s="20" t="s">
+      <c r="D223" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E223" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="F223" s="20"/>
-      <c r="G223" s="20"/>
+      <c r="F223" s="19"/>
+      <c r="G223" s="19"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="20" t="s">
+      <c r="A224" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B224" s="20" t="s">
+      <c r="B224" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C224" s="20" t="s">
+      <c r="C224" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D224" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E224" s="20" t="s">
+      <c r="D224" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E224" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="F224" s="20"/>
-      <c r="G224" s="20"/>
+      <c r="F224" s="19"/>
+      <c r="G224" s="19"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="20" t="s">
+      <c r="A225" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B225" s="20" t="s">
+      <c r="B225" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C225" s="20" t="s">
+      <c r="C225" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D225" s="20" t="s">
+      <c r="D225" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E225" s="20">
+      <c r="E225" s="19">
         <v>3</v>
       </c>
-      <c r="F225" s="20"/>
-      <c r="G225" s="20"/>
+      <c r="F225" s="19"/>
+      <c r="G225" s="19"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="20" t="s">
+      <c r="A226" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B226" s="20" t="s">
+      <c r="B226" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C226" s="20" t="s">
+      <c r="C226" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="D226" s="20" t="s">
+      <c r="D226" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="E226" s="20" t="s">
+      <c r="E226" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="F226" s="20"/>
-      <c r="G226" s="20"/>
+      <c r="F226" s="19"/>
+      <c r="G226" s="19"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="20" t="s">
+      <c r="A227" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B227" s="20" t="s">
+      <c r="B227" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C227" s="20" t="s">
+      <c r="C227" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="D227" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E227" s="20" t="s">
+      <c r="D227" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E227" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="F227" s="20"/>
-      <c r="G227" s="20"/>
+      <c r="F227" s="19"/>
+      <c r="G227" s="19"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="20" t="s">
+      <c r="A228" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B228" s="20" t="s">
+      <c r="B228" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C228" s="20" t="s">
+      <c r="C228" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D228" s="20" t="s">
+      <c r="D228" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E228" s="20">
+      <c r="E228" s="19">
         <v>3</v>
       </c>
-      <c r="F228" s="20"/>
-      <c r="G228" s="20"/>
+      <c r="F228" s="19"/>
+      <c r="G228" s="19"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="21" t="s">
+      <c r="A229" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="B229" s="20" t="s">
+      <c r="B229" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C229" s="20" t="s">
+      <c r="C229" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="D229" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E229" s="20" t="s">
+      <c r="D229" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E229" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="F229" s="20"/>
-      <c r="G229" s="20"/>
+      <c r="F229" s="19"/>
+      <c r="G229" s="19"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="20" t="s">
+      <c r="A230" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B230" s="20" t="s">
+      <c r="B230" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C230" s="20" t="s">
+      <c r="C230" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D230" s="20" t="s">
+      <c r="D230" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E230" s="20">
+      <c r="E230" s="19">
         <v>2</v>
       </c>
-      <c r="F230" s="20"/>
-      <c r="G230" s="20"/>
+      <c r="F230" s="19"/>
+      <c r="G230" s="19"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="20" t="s">
+      <c r="A231" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B231" s="20" t="s">
+      <c r="B231" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C231" s="20" t="s">
+      <c r="C231" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="D231" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E231" s="20" t="s">
+      <c r="D231" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E231" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="F231" s="20"/>
-      <c r="G231" s="20"/>
+      <c r="F231" s="19"/>
+      <c r="G231" s="19"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="20" t="s">
+      <c r="A232" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B232" s="20" t="s">
+      <c r="B232" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C232" s="20" t="s">
+      <c r="C232" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="D232" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E232" s="20" t="s">
+      <c r="D232" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E232" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="F232" s="20"/>
-      <c r="G232" s="20"/>
+      <c r="F232" s="19"/>
+      <c r="G232" s="19"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="20" t="s">
+      <c r="A233" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B233" s="20" t="s">
+      <c r="B233" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C233" s="20" t="s">
+      <c r="C233" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="D233" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E233" s="20" t="s">
+      <c r="D233" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E233" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="F233" s="20"/>
-      <c r="G233" s="20"/>
+      <c r="F233" s="19"/>
+      <c r="G233" s="19"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="20" t="s">
+      <c r="A234" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B234" s="20" t="s">
+      <c r="B234" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C234" s="20" t="s">
+      <c r="C234" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D234" s="20" t="s">
+      <c r="D234" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E234" s="20">
+      <c r="E234" s="19">
         <v>2</v>
       </c>
-      <c r="F234" s="20"/>
-      <c r="G234" s="20"/>
+      <c r="F234" s="19"/>
+      <c r="G234" s="19"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="20" t="s">
+      <c r="A235" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B235" s="20" t="s">
+      <c r="B235" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C235" s="20" t="s">
+      <c r="C235" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="D235" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E235" s="20" t="s">
+      <c r="D235" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E235" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="F235" s="20"/>
-      <c r="G235" s="20"/>
+      <c r="F235" s="19"/>
+      <c r="G235" s="19"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="20" t="s">
+      <c r="A236" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B236" s="20" t="s">
+      <c r="B236" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C236" s="20" t="s">
+      <c r="C236" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="D236" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E236" s="20" t="s">
+      <c r="D236" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E236" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="F236" s="20"/>
-      <c r="G236" s="20"/>
+      <c r="F236" s="19"/>
+      <c r="G236" s="19"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="20" t="s">
+      <c r="A237" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B237" s="20" t="s">
+      <c r="B237" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C237" s="20" t="s">
+      <c r="C237" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D237" s="20" t="s">
+      <c r="D237" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E237" s="20">
+      <c r="E237" s="19">
         <v>10</v>
       </c>
-      <c r="F237" s="20"/>
-      <c r="G237" s="20"/>
+      <c r="F237" s="19"/>
+      <c r="G237" s="19"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="20" t="s">
+      <c r="A238" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B238" s="20" t="s">
+      <c r="B238" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C238" s="20" t="s">
+      <c r="C238" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="D238" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E238" s="20" t="s">
+      <c r="D238" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E238" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="F238" s="20"/>
-      <c r="G238" s="20"/>
+      <c r="F238" s="19"/>
+      <c r="G238" s="19"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="20" t="s">
+      <c r="A239" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B239" s="20" t="s">
+      <c r="B239" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C239" s="20" t="s">
+      <c r="C239" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="D239" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E239" s="20" t="s">
+      <c r="D239" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E239" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="F239" s="20"/>
-      <c r="G239" s="20"/>
+      <c r="F239" s="19"/>
+      <c r="G239" s="19"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" s="20" t="s">
+      <c r="A240" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B240" s="20" t="s">
+      <c r="B240" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C240" s="20" t="s">
+      <c r="C240" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="D240" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E240" s="20" t="s">
+      <c r="D240" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E240" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="F240" s="20"/>
-      <c r="G240" s="20"/>
+      <c r="F240" s="19"/>
+      <c r="G240" s="19"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="20" t="s">
+      <c r="A241" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B241" s="20" t="s">
+      <c r="B241" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C241" s="20" t="s">
+      <c r="C241" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="D241" s="20" t="s">
+      <c r="D241" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E241" s="20" t="s">
+      <c r="E241" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="F241" s="20" t="s">
+      <c r="F241" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="G241" s="20"/>
+      <c r="G241" s="19"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="20" t="s">
+      <c r="A242" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B242" s="20" t="s">
+      <c r="B242" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C242" s="20" t="s">
+      <c r="C242" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D242" s="20" t="s">
+      <c r="D242" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E242" s="20">
+      <c r="E242" s="19">
         <v>3</v>
       </c>
-      <c r="F242" s="20"/>
-      <c r="G242" s="20"/>
+      <c r="F242" s="19"/>
+      <c r="G242" s="19"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="20" t="s">
+      <c r="A243" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B243" s="20" t="s">
+      <c r="B243" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C243" s="20" t="s">
+      <c r="C243" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="D243" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E243" s="20" t="s">
+      <c r="D243" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E243" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="F243" s="20"/>
-      <c r="G243" s="20"/>
+      <c r="F243" s="19"/>
+      <c r="G243" s="19"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="20" t="s">
+      <c r="A244" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B244" s="20" t="s">
+      <c r="B244" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C244" s="20" t="s">
+      <c r="C244" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="D244" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E244" s="20" t="s">
+      <c r="D244" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E244" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="F244" s="20"/>
-      <c r="G244" s="20"/>
+      <c r="F244" s="19"/>
+      <c r="G244" s="19"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="20" t="s">
+      <c r="A245" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B245" s="20" t="s">
+      <c r="B245" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C245" s="20" t="s">
+      <c r="C245" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="D245" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E245" s="20" t="s">
+      <c r="D245" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E245" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="F245" s="20"/>
-      <c r="G245" s="20"/>
+      <c r="F245" s="19"/>
+      <c r="G245" s="19"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="20" t="s">
+      <c r="A246" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B246" s="20" t="s">
+      <c r="B246" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C246" s="20" t="s">
+      <c r="C246" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D246" s="20" t="s">
+      <c r="D246" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E246" s="20">
+      <c r="E246" s="19">
         <v>3</v>
       </c>
-      <c r="F246" s="20"/>
-      <c r="G246" s="20"/>
+      <c r="F246" s="19"/>
+      <c r="G246" s="19"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" s="20" t="s">
+      <c r="A247" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B247" s="20" t="s">
+      <c r="B247" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="C247" s="20" t="s">
+      <c r="C247" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="D247" s="20" t="s">
+      <c r="D247" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E247" s="20" t="s">
+      <c r="E247" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="F247" s="20" t="s">
+      <c r="F247" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="G247" s="20"/>
+      <c r="G247" s="19"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248" s="20" t="s">
+      <c r="A248" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B248" s="20" t="s">
+      <c r="B248" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="C248" s="20" t="s">
+      <c r="C248" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="D248" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E248" s="20" t="s">
+      <c r="D248" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E248" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="F248" s="20"/>
-      <c r="G248" s="20"/>
+      <c r="F248" s="19"/>
+      <c r="G248" s="19"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="B249" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C249" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D249" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E249" s="19">
+        <v>2</v>
+      </c>
+      <c r="F249" s="19"/>
+      <c r="G249" s="19"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="B250" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C250" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="D250" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E250" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="F250" s="19"/>
+      <c r="G250" s="19"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="B251" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C251" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D251" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E251" s="19">
+        <v>3</v>
+      </c>
+      <c r="F251" s="19"/>
+      <c r="G251" s="19"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="B252" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C252" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="D252" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E252" s="19"/>
+      <c r="F252" s="19"/>
+      <c r="G252" s="19"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B253" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C253" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D253" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E253" s="23"/>
+      <c r="F253" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G253" s="23"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B254" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C254" s="23"/>
+      <c r="D254" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E254" s="23"/>
+      <c r="F254" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G254" s="23"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B255" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C255" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D255" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E255" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F255" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G255" s="23"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B256" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C256" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D256" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E256" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F256" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G256" s="23"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B257" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C257" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D257" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E257" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F257" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G257" s="23"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B258" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C258" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D258" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E258" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F258" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G258" s="23"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B259" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C259" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D259" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E259" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F259" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G259" s="23"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B260" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C260" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D260" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E260" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F260" s="23"/>
+      <c r="G260" s="23"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B261" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C261" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D261" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E261" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F261" s="23"/>
+      <c r="G261" s="23"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B262" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C262" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D262" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E262" s="23">
+        <v>5</v>
+      </c>
+      <c r="F262" s="23"/>
+      <c r="G262" s="23"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B263" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C263" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D263" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E263" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F263" s="23"/>
+      <c r="G263" s="23"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B264" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C264" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D264" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E264" s="23">
+        <v>3</v>
+      </c>
+      <c r="F264" s="23"/>
+      <c r="G264" s="23"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B265" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C265" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D265" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="E265" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F265" s="23"/>
+      <c r="G265" s="23"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B266" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C266" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D266" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E266" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F266" s="23"/>
+      <c r="G266" s="23"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B267" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C267" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="D267" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E267" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="F267" s="23"/>
+      <c r="G267" s="23"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B268" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C268" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D268" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E268" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F268" s="23"/>
+      <c r="G268" s="23"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B269" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C269" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D269" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E269" s="23">
+        <v>3</v>
+      </c>
+      <c r="F269" s="23"/>
+      <c r="G269" s="23"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B270" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C270" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D270" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="E270" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="F270" s="23"/>
+      <c r="G270" s="23"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B271" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C271" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D271" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E271" s="23">
+        <v>3</v>
+      </c>
+      <c r="F271" s="23"/>
+      <c r="G271" s="23"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B272" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C272" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="D272" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E272" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="F272" s="23"/>
+      <c r="G272" s="23"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B273" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C273" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D273" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E273" s="23">
+        <v>6</v>
+      </c>
+      <c r="F273" s="23"/>
+      <c r="G273" s="23"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B274" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C274" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="D274" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E274" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="F274" s="23"/>
+      <c r="G274" s="23"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B275" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C275" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D275" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E275" s="23">
+        <v>3</v>
+      </c>
+      <c r="F275" s="23"/>
+      <c r="G275" s="23"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B276" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C276" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="D276" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="E276" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="F276" s="23"/>
+      <c r="G276" s="23"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B277" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C277" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D277" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E277" s="23">
+        <v>2</v>
+      </c>
+      <c r="F277" s="23"/>
+      <c r="G277" s="23"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B278" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C278" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="D278" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E278" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="F278" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="G278" s="23"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B279" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C279" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="D279" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E279" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="F279" s="23"/>
+      <c r="G279" s="23"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B280" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C280" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="D280" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E280" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="F280" s="23"/>
+      <c r="G280" s="23"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B281" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C281" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="D281" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E281" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="F281" s="23"/>
+      <c r="G281" s="23"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B282" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C282" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="D282" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E282" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="F282" s="23"/>
+      <c r="G282" s="23"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B283" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C283" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="D283" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E283" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="F283" s="23"/>
+      <c r="G283" s="23"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B284" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C284" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="D284" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E284" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="F284" s="23"/>
+      <c r="G284" s="23"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B285" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C285" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="D285" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E285" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="F285" s="23"/>
+      <c r="G285" s="23"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B286" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C286" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="D286" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E286" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="F286" s="23"/>
+      <c r="G286" s="23"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B287" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C287" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="D287" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="E287" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="F287" s="23"/>
+      <c r="G287" s="23"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B288" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C288" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="D288" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E288" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="F288" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="G288" s="23"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B289" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C289" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D289" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E289" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="F289" s="23"/>
+      <c r="G289" s="23"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B290" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C290" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="D290" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E290" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="F290" s="23"/>
+      <c r="G290" s="23"/>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B291" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C291" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="D291" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="E291" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="F291" s="23"/>
+      <c r="G291" s="23"/>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B292" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C292" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="D292" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E292" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="F292" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="G292" s="23"/>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B293" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C293" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D293" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E293" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="F293" s="23"/>
+      <c r="G293" s="23"/>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B294" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C294" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="D294" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E294" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="F294" s="23"/>
+      <c r="G294" s="23"/>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B295" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C295" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="D295" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E295" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="F295" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="G295" s="23"/>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B296" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C296" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="D296" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E296" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="F296" s="23"/>
+      <c r="G296" s="23"/>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B297" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C297" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D297" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E297" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="F297" s="23"/>
+      <c r="G297" s="23"/>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B298" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C298" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="D298" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E298" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="F298" s="23"/>
+      <c r="G298" s="23"/>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B299" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C299" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D299" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E299" s="23">
+        <v>2</v>
+      </c>
+      <c r="F299" s="23"/>
+      <c r="G299" s="23"/>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B300" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C300" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="D300" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E300" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="F300" s="23"/>
+      <c r="G300" s="23"/>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B301" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C301" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D301" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E301" s="23">
+        <v>2</v>
+      </c>
+      <c r="F301" s="23"/>
+      <c r="G301" s="23"/>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B302" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C302" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="D302" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E302" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="F302" s="23"/>
+      <c r="G302" s="23"/>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B303" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C303" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D303" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E303" s="23">
+        <v>2</v>
+      </c>
+      <c r="F303" s="23"/>
+      <c r="G303" s="23"/>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B304" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C304" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="D304" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E304" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="F304" s="23"/>
+      <c r="G304" s="23"/>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B305" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C305" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D305" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E305" s="23">
+        <v>2</v>
+      </c>
+      <c r="F305" s="23"/>
+      <c r="G305" s="23"/>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B306" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C306" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="D306" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="E306" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="F306" s="23"/>
+      <c r="G306" s="23"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B307" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C307" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="D307" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E307" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="F307" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="G307" s="23"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B308" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C308" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D308" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E308" s="23">
+        <v>2</v>
+      </c>
+      <c r="F308" s="23"/>
+      <c r="G308" s="23"/>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B309" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C309" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="D309" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E309" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="F309" s="23"/>
+      <c r="G309" s="23"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B310" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C310" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="D310" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E310" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="F310" s="23"/>
+      <c r="G310" s="23"/>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B311" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C311" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D311" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E311" s="23">
+        <v>2</v>
+      </c>
+      <c r="F311" s="23"/>
+      <c r="G311" s="23"/>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B312" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C312" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="D312" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="E312" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="F312" s="23"/>
+      <c r="G312" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6428,16 +7882,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1" collapsed="1"/>
     <col min="2" max="3" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="255" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6453,7 +7907,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6470,6 +7924,9 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6483,6 +7940,9 @@
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -6492,10 +7952,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6504,30 +7964,34 @@
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -6537,14 +8001,17 @@
         <v>119</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -6554,14 +8021,17 @@
         <v>127</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -6571,7 +8041,10 @@
         <v>119</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/src/com/qtpselenium/xls/C Suite.xlsx
+++ b/src/com/qtpselenium/xls/C Suite.xlsx
@@ -13,14 +13,14 @@
     <sheet name="Appointment_Creation" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Steps'!$D$1:$D$272</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Steps'!$D$1:$D$280</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="445">
   <si>
     <t>TCID</t>
   </si>
@@ -1069,197 +1069,339 @@
     <t>close browser</t>
   </si>
   <si>
+    <t>Spectacle_Rx</t>
+  </si>
+  <si>
+    <t>Open refracted column</t>
+  </si>
+  <si>
+    <t>refracted_open</t>
+  </si>
+  <si>
+    <t>Add Refracted Values</t>
+  </si>
+  <si>
+    <t>Refracted_values</t>
+  </si>
+  <si>
+    <t>Referacted_values|Referacted_ok</t>
+  </si>
+  <si>
+    <t>Refracted Rx comments</t>
+  </si>
+  <si>
+    <t>Referacted_comments</t>
+  </si>
+  <si>
+    <t>config|referacted_comments</t>
+  </si>
+  <si>
+    <t>Enter BVD values</t>
+  </si>
+  <si>
+    <t>BVD_values</t>
+  </si>
+  <si>
+    <t>click_referacted_bottom_ok</t>
+  </si>
+  <si>
+    <t>click referacted ok button</t>
+  </si>
+  <si>
+    <t>PD_bin</t>
+  </si>
+  <si>
+    <t>work_distance_immediate</t>
+  </si>
+  <si>
+    <t>work_distance_near</t>
+  </si>
+  <si>
+    <t>R_specific</t>
+  </si>
+  <si>
+    <t>enter PD value</t>
+  </si>
+  <si>
+    <t>enter work module</t>
+  </si>
+  <si>
+    <t>enter work distance</t>
+  </si>
+  <si>
+    <t>click on R button</t>
+  </si>
+  <si>
+    <t>click_and_clear</t>
+  </si>
+  <si>
+    <t>clear_box</t>
+  </si>
+  <si>
+    <t>clear filed value</t>
+  </si>
+  <si>
+    <t>add value in clear box</t>
+  </si>
+  <si>
+    <t>config|R_value</t>
+  </si>
+  <si>
+    <t>L_Specific</t>
+  </si>
+  <si>
+    <t>config|L_value</t>
+  </si>
+  <si>
+    <t>L specific button</t>
+  </si>
+  <si>
+    <t>clearfield value</t>
+  </si>
+  <si>
+    <t>enter value</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>config|reason_refracted</t>
+  </si>
+  <si>
+    <t>enter value for reason</t>
+  </si>
+  <si>
+    <t>click on reason button</t>
+  </si>
+  <si>
+    <t>near_value</t>
+  </si>
+  <si>
+    <t>enter value in near column</t>
+  </si>
+  <si>
+    <t>Spectacle_final_ok</t>
+  </si>
+  <si>
+    <t>close final window</t>
+  </si>
+  <si>
+    <t>copy_button</t>
+  </si>
+  <si>
+    <t>click on copy button</t>
+  </si>
+  <si>
+    <t>select_prescribe_Rx</t>
+  </si>
+  <si>
+    <t>select prescribe rx from drop down</t>
+  </si>
+  <si>
+    <t>open_prescribed_rx</t>
+  </si>
+  <si>
+    <t>reason_prescribed_rx</t>
+  </si>
+  <si>
+    <t>config|prescribed_reason</t>
+  </si>
+  <si>
+    <t>open prescribed rx window</t>
+  </si>
+  <si>
+    <t>clear the reason box</t>
+  </si>
+  <si>
+    <t>write the reason comments</t>
+  </si>
+  <si>
+    <t>close prescribed rx screen</t>
+  </si>
+  <si>
+    <t>ok_prescribed</t>
+  </si>
+  <si>
+    <t>open_cover_test_distance</t>
+  </si>
+  <si>
+    <t>open cover distance</t>
+  </si>
+  <si>
+    <t>add values to cover distance</t>
+  </si>
+  <si>
+    <t>cover_distance_values</t>
+  </si>
+  <si>
+    <t>distance_values|ok_button</t>
+  </si>
+  <si>
+    <t>pause for the screen</t>
+  </si>
+  <si>
+    <t>cover_distance_comments</t>
+  </si>
+  <si>
+    <t>add comments</t>
+  </si>
+  <si>
+    <t>config|cover_distance_comments</t>
+  </si>
+  <si>
+    <t>cover_distance_ok</t>
+  </si>
+  <si>
+    <t>click on OK button</t>
+  </si>
+  <si>
+    <t>phoria_distance_test</t>
+  </si>
+  <si>
+    <t>open phoria distance</t>
+  </si>
+  <si>
+    <t>phoria_values|phoria_ok</t>
+  </si>
+  <si>
+    <t>add values</t>
+  </si>
+  <si>
+    <t>phoria_comments</t>
+  </si>
+  <si>
+    <t>config|phoria_comments</t>
+  </si>
+  <si>
+    <t>phoria_dropdown</t>
+  </si>
+  <si>
+    <t>phoria_fixation</t>
+  </si>
+  <si>
+    <t>phoria_final_ok</t>
+  </si>
+  <si>
+    <t>phoria_distance_values</t>
+  </si>
+  <si>
+    <t>Clear_button</t>
+  </si>
+  <si>
+    <t>TS53</t>
+  </si>
+  <si>
+    <t>click on cover test near</t>
+  </si>
+  <si>
+    <t>cover_test_near_values</t>
+  </si>
+  <si>
+    <t>add values into cover test distance</t>
+  </si>
+  <si>
+    <t>TS54</t>
+  </si>
+  <si>
+    <t>TS55</t>
+  </si>
+  <si>
+    <t>click on starting box</t>
+  </si>
+  <si>
+    <t>click_box_phoria</t>
+  </si>
+  <si>
+    <t>close_phoria_screen</t>
+  </si>
+  <si>
+    <t>TS56</t>
+  </si>
+  <si>
+    <t>close the phoria screen</t>
+  </si>
+  <si>
+    <t>scroll down to findOk button</t>
+  </si>
+  <si>
+    <t>close the Spectacle  screen</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>Wait for element</t>
+  </si>
+  <si>
+    <t>waitForElement</t>
+  </si>
+  <si>
+    <t>Result1</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>Fail--Not able to verify text:invalid selector: Unable to locate an element with the xpath expression //*[@id='main']/section/div[1]/form/div[1]/h1 because of the following error:
-TypeError: Failed to execute 'createNSResolver' on 'Document': parameter 1 is not of type 'Node'.
+    <t>Fail--Not able to navigateelement not visible
   (Session info: chrome=47.0.2526.106)
   (Driver info: chromedriver=2.6.232923,platform=Windows NT 6.1 SP1 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 485 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/invalid_selector_exception.html
+Command duration or timeout: 86 milliseconds
 Build info: version: '2.44.0', revision: '76d78cf', time: '2014-10-23 20:03:00'
-System info: host: 'ATLANTISPC-274', ip: '10.210.16.26', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_79'
-Session ID: b7cb22d648d31addffb0898d78cefdbb
+System info: host: 'ATLANTISPC-274', ip: '10.210.16.42', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_79'
+Session ID: 528a7a361b610b37c0b81c712df7a436
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, acceptSslCerts=true, javascriptEnabled=true, browserName=chrome, chrome={userDataDir=C:\Users\aakarg\AppData\Local\Temp\scoped_dir9948_14762}, rotatable=false, locationContextEnabled=true, version=47.0.2526.106, takesHeapSnapshot=true, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>Skip</t>
-  </si>
-  <si>
-    <t>Spectacle_Rx</t>
-  </si>
-  <si>
-    <t>Open refracted column</t>
-  </si>
-  <si>
-    <t>refracted_open</t>
-  </si>
-  <si>
-    <t>Add Refracted Values</t>
-  </si>
-  <si>
-    <t>Refracted_values</t>
-  </si>
-  <si>
-    <t>Referacted_values|Referacted_ok</t>
-  </si>
-  <si>
-    <t>Refracted Rx comments</t>
-  </si>
-  <si>
-    <t>Referacted_comments</t>
-  </si>
-  <si>
-    <t>config|referacted_comments</t>
-  </si>
-  <si>
-    <t>Enter BVD values</t>
-  </si>
-  <si>
-    <t>BVD_values</t>
-  </si>
-  <si>
-    <t>click_referacted_bottom_ok</t>
-  </si>
-  <si>
-    <t>click referacted ok button</t>
-  </si>
-  <si>
-    <t>PD_bin</t>
-  </si>
-  <si>
-    <t>work_distance_immediate</t>
-  </si>
-  <si>
-    <t>work_distance_near</t>
-  </si>
-  <si>
-    <t>R_specific</t>
-  </si>
-  <si>
-    <t>enter PD value</t>
-  </si>
-  <si>
-    <t>enter work module</t>
-  </si>
-  <si>
-    <t>enter work distance</t>
-  </si>
-  <si>
-    <t>click on R button</t>
-  </si>
-  <si>
-    <t>click_and_clear</t>
-  </si>
-  <si>
-    <t>clear_box</t>
-  </si>
-  <si>
-    <t>clear filed value</t>
-  </si>
-  <si>
-    <t>add value in clear box</t>
-  </si>
-  <si>
-    <t>config|R_value</t>
-  </si>
-  <si>
-    <t>L_Specific</t>
-  </si>
-  <si>
-    <t>config|L_value</t>
-  </si>
-  <si>
-    <t>L specific button</t>
-  </si>
-  <si>
-    <t>clearfield value</t>
-  </si>
-  <si>
-    <t>enter value</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>config|reason_refracted</t>
-  </si>
-  <si>
-    <t>enter value for reason</t>
-  </si>
-  <si>
-    <t>click on reason button</t>
-  </si>
-  <si>
-    <t>near_value</t>
-  </si>
-  <si>
-    <t>enter value in near column</t>
-  </si>
-  <si>
-    <t>Spectacle_final_ok</t>
-  </si>
-  <si>
-    <t>close final window</t>
-  </si>
-  <si>
-    <t>copy_button</t>
-  </si>
-  <si>
-    <t>click on copy button</t>
-  </si>
-  <si>
-    <t>select_prescribe_Rx</t>
-  </si>
-  <si>
-    <t>select prescribe rx from drop down</t>
-  </si>
-  <si>
-    <t>open_prescribed_rx</t>
-  </si>
-  <si>
-    <t>reason_prescribed_rx</t>
-  </si>
-  <si>
-    <t>config|prescribed_reason</t>
-  </si>
-  <si>
-    <t>open prescribed rx window</t>
-  </si>
-  <si>
-    <t>clear the reason box</t>
-  </si>
-  <si>
-    <t>write the reason comments</t>
-  </si>
-  <si>
-    <t>close prescribed rx screen</t>
-  </si>
-  <si>
-    <t>ok_prescribed</t>
-  </si>
-  <si>
-    <t>open_cover_test_distance</t>
-  </si>
-  <si>
-    <t>open cover distance</t>
-  </si>
-  <si>
-    <t>add values to cover distance</t>
-  </si>
-  <si>
-    <t>cover_distance_values</t>
-  </si>
-  <si>
-    <t>distance_values|ok_button</t>
+Capabilities [{platform=XP, acceptSslCerts=true, javascriptEnabled=true, browserName=chrome, chrome={userDataDir=C:\Users\aakarg\AppData\Local\Temp\scoped_dir856_21790}, rotatable=false, locationContextEnabled=true, version=47.0.2526.106, takesHeapSnapshot=true, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, applicationCacheEnabled=false, takesScreenshot=true}]</t>
+  </si>
+  <si>
+    <t>Fail--Not able to navigateelement not visible
+  (Session info: chrome=47.0.2526.106)
+  (Driver info: chromedriver=2.6.232923,platform=Windows NT 6.1 SP1 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 47 milliseconds
+Build info: version: '2.44.0', revision: '76d78cf', time: '2014-10-23 20:03:00'
+System info: host: 'ATLANTISPC-274', ip: '10.210.16.42', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_79'
+Session ID: 528a7a361b610b37c0b81c712df7a436
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{platform=XP, acceptSslCerts=true, javascriptEnabled=true, browserName=chrome, chrome={userDataDir=C:\Users\aakarg\AppData\Local\Temp\scoped_dir856_21790}, rotatable=false, locationContextEnabled=true, version=47.0.2526.106, takesHeapSnapshot=true, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, applicationCacheEnabled=false, takesScreenshot=true}]</t>
+  </si>
+  <si>
+    <t>Fail--Not able to navigateelement not visible
+  (Session info: chrome=47.0.2526.106)
+  (Driver info: chromedriver=2.6.232923,platform=Windows NT 6.1 SP1 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 24 milliseconds
+Build info: version: '2.44.0', revision: '76d78cf', time: '2014-10-23 20:03:00'
+System info: host: 'ATLANTISPC-274', ip: '10.210.16.42', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_79'
+Session ID: 528a7a361b610b37c0b81c712df7a436
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{platform=XP, acceptSslCerts=true, javascriptEnabled=true, browserName=chrome, chrome={userDataDir=C:\Users\aakarg\AppData\Local\Temp\scoped_dir856_21790}, rotatable=false, locationContextEnabled=true, version=47.0.2526.106, takesHeapSnapshot=true, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, applicationCacheEnabled=false, takesScreenshot=true}]</t>
+  </si>
+  <si>
+    <t>Fail--Not able to navigateelement not visible
+  (Session info: chrome=47.0.2526.106)
+  (Driver info: chromedriver=2.6.232923,platform=Windows NT 6.1 SP1 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 27 milliseconds
+Build info: version: '2.44.0', revision: '76d78cf', time: '2014-10-23 20:03:00'
+System info: host: 'ATLANTISPC-274', ip: '10.210.16.42', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_79'
+Session ID: 528a7a361b610b37c0b81c712df7a436
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{platform=XP, acceptSslCerts=true, javascriptEnabled=true, browserName=chrome, chrome={userDataDir=C:\Users\aakarg\AppData\Local\Temp\scoped_dir856_21790}, rotatable=false, locationContextEnabled=true, version=47.0.2526.106, takesHeapSnapshot=true, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, applicationCacheEnabled=false, takesScreenshot=true}]</t>
+  </si>
+  <si>
+    <t>Fail--Not able to navigateelement not visible
+  (Session info: chrome=47.0.2526.106)
+  (Driver info: chromedriver=2.6.232923,platform=Windows NT 6.1 SP1 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 17 milliseconds
+Build info: version: '2.44.0', revision: '76d78cf', time: '2014-10-23 20:03:00'
+System info: host: 'ATLANTISPC-274', ip: '10.210.16.42', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_79'
+Session ID: 528a7a361b610b37c0b81c712df7a436
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{platform=XP, acceptSslCerts=true, javascriptEnabled=true, browserName=chrome, chrome={userDataDir=C:\Users\aakarg\AppData\Local\Temp\scoped_dir856_21790}, rotatable=false, locationContextEnabled=true, version=47.0.2526.106, takesHeapSnapshot=true, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, applicationCacheEnabled=false, takesScreenshot=true}]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1269,7 +1411,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1330,8 +1472,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1378,11 +1530,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1406,11 +1567,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1721,14 +1884,14 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1752,7 +1915,7 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1813,7 +1976,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1830,20 +1993,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G312"/>
+  <dimension ref="A1:G344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H290" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H290" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A302" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H263" sqref="H263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="50" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="50.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="255.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1868,6 +2032,9 @@
       <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H1" t="s" s="27">
+        <v>438</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2235,13 +2402,13 @@
         <v>58</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
+      </c>
+      <c r="E20" s="4">
+        <v>10</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -2254,13 +2421,13 @@
         <v>50</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="4">
-        <v>5</v>
+        <v>36</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -2273,13 +2440,13 @@
         <v>63</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="E22" s="4">
+        <v>5</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -2291,14 +2458,14 @@
       <c r="B23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>68</v>
+      <c r="C23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -2310,14 +2477,14 @@
       <c r="B24" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="4">
-        <v>3</v>
+      <c r="C24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -2330,17 +2497,15 @@
         <v>71</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>120</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3</v>
+      </c>
+      <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2351,15 +2516,17 @@
         <v>76</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="4">
-        <v>3</v>
-      </c>
-      <c r="F26" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2370,13 +2537,13 @@
         <v>77</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
+      </c>
+      <c r="E27" s="4">
+        <v>3</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -2389,18 +2556,18 @@
         <v>80</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>53</v>
       </c>
@@ -2408,18 +2575,18 @@
         <v>90</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="4">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>53</v>
       </c>
@@ -2427,18 +2594,16 @@
         <v>83</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="E30" s="4">
+        <v>5</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -2448,18 +2613,20 @@
         <v>84</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>53</v>
       </c>
@@ -2467,18 +2634,18 @@
         <v>85</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="4">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>53</v>
       </c>
@@ -2486,17 +2653,15 @@
         <v>93</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>121</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2507,15 +2672,17 @@
         <v>97</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F34" s="4"/>
+        <v>103</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2526,13 +2693,13 @@
         <v>104</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -2545,17 +2712,15 @@
         <v>105</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>122</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2566,16 +2731,16 @@
         <v>106</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G37" s="4"/>
     </row>
@@ -2587,51 +2752,53 @@
         <v>108</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="4">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>111</v>
+        <v>65</v>
+      </c>
+      <c r="E40" s="4">
+        <v>3</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -2641,7 +2808,7 @@
         <v>53</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>109</v>
@@ -2650,7 +2817,7 @@
         <v>110</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -2660,51 +2827,53 @@
         <v>53</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" s="11"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>227</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="D44" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G44" s="11"/>
     </row>
@@ -2713,19 +2882,15 @@
         <v>227</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C45" s="11"/>
       <c r="D45" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E45" s="11"/>
       <c r="F45" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G45" s="11"/>
     </row>
@@ -2734,19 +2899,19 @@
         <v>227</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G46" s="11"/>
     </row>
@@ -2755,19 +2920,19 @@
         <v>227</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -2776,19 +2941,19 @@
         <v>227</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G48" s="11"/>
     </row>
@@ -2797,19 +2962,19 @@
         <v>227</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -2818,18 +2983,20 @@
         <v>227</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="11"/>
+      <c r="F50" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2837,16 +3004,16 @@
         <v>227</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -2856,16 +3023,16 @@
         <v>227</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>64</v>
+        <v>405</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>65</v>
       </c>
       <c r="E52" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -2875,16 +3042,16 @@
         <v>227</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -2903,7 +3070,7 @@
         <v>65</v>
       </c>
       <c r="E54" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -2913,16 +3080,16 @@
         <v>227</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>226</v>
+        <v>62</v>
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
@@ -2932,16 +3099,16 @@
         <v>227</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>131</v>
+        <v>65</v>
+      </c>
+      <c r="E56" s="11">
+        <v>3</v>
       </c>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -2951,16 +3118,16 @@
         <v>227</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>36</v>
+        <v>225</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>133</v>
+        <v>226</v>
       </c>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
@@ -2970,16 +3137,16 @@
         <v>227</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
@@ -2989,16 +3156,16 @@
         <v>227</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
@@ -3008,16 +3175,16 @@
         <v>227</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E60" s="11">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
@@ -3027,16 +3194,16 @@
         <v>227</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
@@ -3046,7 +3213,7 @@
         <v>227</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>64</v>
@@ -3055,7 +3222,7 @@
         <v>65</v>
       </c>
       <c r="E62" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
@@ -3065,16 +3232,16 @@
         <v>227</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
@@ -3084,7 +3251,7 @@
         <v>227</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>64</v>
@@ -3103,16 +3270,16 @@
         <v>227</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
@@ -3122,16 +3289,16 @@
         <v>227</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>146</v>
+        <v>65</v>
+      </c>
+      <c r="E66" s="11">
+        <v>5</v>
       </c>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
@@ -3141,20 +3308,18 @@
         <v>227</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>150</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="F67" s="11"/>
       <c r="G67" s="11"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3162,16 +3327,16 @@
         <v>227</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E68" s="11">
-        <v>3</v>
+        <v>145</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
@@ -3181,18 +3346,20 @@
         <v>227</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="F69" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>150</v>
+      </c>
       <c r="G69" s="11"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3200,16 +3367,16 @@
         <v>227</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>153</v>
+        <v>65</v>
+      </c>
+      <c r="E70" s="11">
+        <v>3</v>
       </c>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
@@ -3219,16 +3386,16 @@
         <v>227</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
@@ -3238,20 +3405,18 @@
         <v>227</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>158</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="F72" s="11"/>
       <c r="G72" s="11"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3259,16 +3424,16 @@
         <v>227</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
@@ -3278,18 +3443,20 @@
         <v>227</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E74" s="11">
-        <v>3</v>
-      </c>
-      <c r="F74" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="G74" s="11"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3297,16 +3464,16 @@
         <v>227</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
@@ -3316,7 +3483,7 @@
         <v>227</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>64</v>
@@ -3335,16 +3502,16 @@
         <v>227</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
@@ -3354,16 +3521,16 @@
         <v>227</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>170</v>
+        <v>65</v>
+      </c>
+      <c r="E78" s="11">
+        <v>3</v>
       </c>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
@@ -3373,20 +3540,18 @@
         <v>227</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>174</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="F79" s="11"/>
       <c r="G79" s="11"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3394,16 +3559,16 @@
         <v>227</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
@@ -3413,18 +3578,20 @@
         <v>227</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="F81" s="11"/>
+        <v>173</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>174</v>
+      </c>
       <c r="G81" s="11"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3432,16 +3599,16 @@
         <v>227</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E82" s="11">
-        <v>3</v>
+        <v>177</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
@@ -3451,16 +3618,16 @@
         <v>227</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
@@ -3470,16 +3637,16 @@
         <v>227</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>183</v>
+        <v>65</v>
+      </c>
+      <c r="E84" s="11">
+        <v>3</v>
       </c>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
@@ -3489,20 +3656,18 @@
         <v>227</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>192</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="F85" s="11"/>
       <c r="G85" s="11"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3510,16 +3675,16 @@
         <v>227</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
@@ -3529,18 +3694,20 @@
         <v>227</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="F87" s="11"/>
+        <v>191</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>192</v>
+      </c>
       <c r="G87" s="11"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3548,20 +3715,18 @@
         <v>227</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>205</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="F88" s="11"/>
       <c r="G88" s="11"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3569,16 +3734,16 @@
         <v>227</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
@@ -3588,18 +3753,20 @@
         <v>227</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="F90" s="11"/>
+        <v>204</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>205</v>
+      </c>
       <c r="G90" s="11"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3607,16 +3774,16 @@
         <v>227</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
@@ -3626,16 +3793,16 @@
         <v>227</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
@@ -3645,20 +3812,18 @@
         <v>227</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>221</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="F93" s="11"/>
       <c r="G93" s="11"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3666,16 +3831,16 @@
         <v>227</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D94" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
@@ -3685,18 +3850,20 @@
         <v>227</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E95" s="11">
-        <v>3</v>
-      </c>
-      <c r="F95" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>221</v>
+      </c>
       <c r="G95" s="11"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3704,72 +3871,72 @@
         <v>227</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>49</v>
+        <v>222</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E96" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G97" s="15"/>
+      <c r="A97" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E97" s="11">
+        <v>3</v>
+      </c>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G98" s="15"/>
+      <c r="A98" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
         <v>233</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E99" s="15" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E99" s="15"/>
       <c r="F99" s="15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G99" s="15"/>
     </row>
@@ -3778,19 +3945,15 @@
         <v>233</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C100" s="15"/>
       <c r="D100" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E100" s="15" t="s">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E100" s="15"/>
       <c r="F100" s="15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G100" s="15"/>
     </row>
@@ -3799,13 +3962,13 @@
         <v>233</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E101" s="15" t="s">
         <v>21</v>
@@ -3820,13 +3983,13 @@
         <v>233</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E102" s="15" t="s">
         <v>20</v>
@@ -3841,19 +4004,19 @@
         <v>233</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F103" s="15" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G103" s="15"/>
     </row>
@@ -3862,18 +4025,20 @@
         <v>233</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F104" s="15"/>
+        <v>20</v>
+      </c>
+      <c r="F104" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="G104" s="15"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3881,18 +4046,20 @@
         <v>233</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F105" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="F105" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="G105" s="15"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3900,16 +4067,16 @@
         <v>233</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E106" s="15">
-        <v>5</v>
+        <v>36</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="F106" s="15"/>
       <c r="G106" s="15"/>
@@ -3919,16 +4086,16 @@
         <v>233</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E107" s="15" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="E107" s="15">
+        <v>10</v>
       </c>
       <c r="F107" s="15"/>
       <c r="G107" s="15"/>
@@ -3938,16 +4105,16 @@
         <v>233</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E108" s="15">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="F108" s="15"/>
       <c r="G108" s="15"/>
@@ -3957,16 +4124,16 @@
         <v>233</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E109" s="15" t="s">
-        <v>226</v>
+        <v>65</v>
+      </c>
+      <c r="E109" s="15">
+        <v>5</v>
       </c>
       <c r="F109" s="15"/>
       <c r="G109" s="15"/>
@@ -3976,16 +4143,16 @@
         <v>233</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="D110" s="15" t="s">
         <v>36</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="F110" s="15"/>
       <c r="G110" s="15"/>
@@ -3995,16 +4162,16 @@
         <v>233</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>230</v>
+        <v>64</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E111" s="15" t="s">
-        <v>231</v>
+        <v>65</v>
+      </c>
+      <c r="E111" s="15">
+        <v>3</v>
       </c>
       <c r="F111" s="15"/>
       <c r="G111" s="15"/>
@@ -4014,16 +4181,16 @@
         <v>233</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>36</v>
+        <v>225</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>137</v>
+        <v>226</v>
       </c>
       <c r="F112" s="15"/>
       <c r="G112" s="15"/>
@@ -4033,16 +4200,16 @@
         <v>233</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E113" s="15">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="E113" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
@@ -4052,16 +4219,16 @@
         <v>233</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>234</v>
+        <v>36</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F114" s="15"/>
       <c r="G114" s="15"/>
@@ -4071,16 +4238,16 @@
         <v>233</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>236</v>
+        <v>136</v>
       </c>
       <c r="D115" s="15" t="s">
         <v>36</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="F115" s="15"/>
       <c r="G115" s="15"/>
@@ -4090,16 +4257,16 @@
         <v>233</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>237</v>
+        <v>64</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E116" s="15" t="s">
-        <v>238</v>
+        <v>65</v>
+      </c>
+      <c r="E116" s="15">
+        <v>3</v>
       </c>
       <c r="F116" s="15"/>
       <c r="G116" s="15"/>
@@ -4109,16 +4276,16 @@
         <v>233</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>36</v>
+        <v>234</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F117" s="15"/>
       <c r="G117" s="15"/>
@@ -4128,16 +4295,16 @@
         <v>233</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D118" s="15" t="s">
         <v>36</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F118" s="15"/>
       <c r="G118" s="15"/>
@@ -4147,16 +4314,16 @@
         <v>233</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D119" s="15" t="s">
         <v>36</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F119" s="15"/>
       <c r="G119" s="15"/>
@@ -4166,16 +4333,16 @@
         <v>233</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D120" s="15" t="s">
         <v>36</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="F120" s="15"/>
       <c r="G120" s="15"/>
@@ -4185,16 +4352,16 @@
         <v>233</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D121" s="15" t="s">
         <v>36</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F121" s="15"/>
       <c r="G121" s="15"/>
@@ -4204,16 +4371,16 @@
         <v>233</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D122" s="15" t="s">
         <v>36</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F122" s="15"/>
       <c r="G122" s="15"/>
@@ -4223,16 +4390,16 @@
         <v>233</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>64</v>
+        <v>242</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E123" s="15">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="E123" s="15" t="s">
+        <v>243</v>
       </c>
       <c r="F123" s="15"/>
       <c r="G123" s="15"/>
@@ -4242,93 +4409,91 @@
         <v>233</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>49</v>
+        <v>244</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E124" s="15"/>
+        <v>36</v>
+      </c>
+      <c r="E124" s="15" t="s">
+        <v>245</v>
+      </c>
       <c r="F124" s="15"/>
       <c r="G124" s="15"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="B125" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" s="16"/>
-      <c r="F125" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G125" s="16"/>
+      <c r="A125" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D125" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E125" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="B126" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C126" s="16"/>
-      <c r="D126" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E126" s="16"/>
-      <c r="F126" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G126" s="16"/>
+      <c r="A126" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E126" s="15">
+        <v>3</v>
+      </c>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="B127" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D127" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F127" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G127" s="16"/>
+      <c r="A127" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D127" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="16" t="s">
         <v>249</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E128" s="16" t="s">
-        <v>20</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E128" s="16"/>
       <c r="F128" s="16" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G128" s="16"/>
     </row>
@@ -4337,19 +4502,15 @@
         <v>249</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>33</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C129" s="16"/>
       <c r="D129" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E129" s="16" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E129" s="16"/>
       <c r="F129" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G129" s="16"/>
     </row>
@@ -4358,19 +4519,19 @@
         <v>249</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F130" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G130" s="16"/>
     </row>
@@ -4379,19 +4540,19 @@
         <v>249</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G131" s="16"/>
     </row>
@@ -4400,18 +4561,20 @@
         <v>249</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D132" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F132" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F132" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="G132" s="16"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4419,18 +4582,20 @@
         <v>249</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D133" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F133" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="F133" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="G133" s="16"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4438,18 +4603,20 @@
         <v>249</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E134" s="16">
-        <v>5</v>
-      </c>
-      <c r="F134" s="16"/>
+        <v>41</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F134" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="G134" s="16"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -4457,16 +4624,16 @@
         <v>249</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D135" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F135" s="16"/>
       <c r="G135" s="16"/>
@@ -4476,16 +4643,16 @@
         <v>249</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C136" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C136" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D136" s="16" t="s">
+      <c r="D136" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E136" s="16">
-        <v>3</v>
+      <c r="E136" s="22">
+        <v>10</v>
       </c>
       <c r="F136" s="16"/>
       <c r="G136" s="16"/>
@@ -4495,16 +4662,16 @@
         <v>249</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>226</v>
+        <v>57</v>
       </c>
       <c r="F137" s="16"/>
       <c r="G137" s="16"/>
@@ -4514,16 +4681,16 @@
         <v>249</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E138" s="16" t="s">
-        <v>133</v>
+        <v>65</v>
+      </c>
+      <c r="E138" s="16">
+        <v>5</v>
       </c>
       <c r="F138" s="16"/>
       <c r="G138" s="16"/>
@@ -4533,16 +4700,16 @@
         <v>249</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>230</v>
+        <v>61</v>
       </c>
       <c r="D139" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>231</v>
+        <v>62</v>
       </c>
       <c r="F139" s="16"/>
       <c r="G139" s="16"/>
@@ -4552,16 +4719,16 @@
         <v>249</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>137</v>
+        <v>65</v>
+      </c>
+      <c r="E140" s="16">
+        <v>3</v>
       </c>
       <c r="F140" s="16"/>
       <c r="G140" s="16"/>
@@ -4571,16 +4738,16 @@
         <v>249</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E141" s="16">
-        <v>3</v>
+        <v>225</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="F141" s="16"/>
       <c r="G141" s="16"/>
@@ -4590,16 +4757,16 @@
         <v>249</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>234</v>
+        <v>36</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="F142" s="16"/>
       <c r="G142" s="16"/>
@@ -4609,16 +4776,16 @@
         <v>249</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D143" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="F143" s="16"/>
       <c r="G143" s="16"/>
@@ -4628,16 +4795,16 @@
         <v>249</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E144" s="16">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="F144" s="16"/>
       <c r="G144" s="16"/>
@@ -4647,16 +4814,16 @@
         <v>249</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>282</v>
+        <v>64</v>
       </c>
       <c r="D145" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>251</v>
+        <v>65</v>
+      </c>
+      <c r="E145" s="16">
+        <v>3</v>
       </c>
       <c r="F145" s="16"/>
       <c r="G145" s="16"/>
@@ -4666,20 +4833,18 @@
         <v>249</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="F146" s="16" t="s">
-        <v>266</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="F146" s="16"/>
       <c r="G146" s="16"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -4687,16 +4852,16 @@
         <v>249</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="D147" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F147" s="16"/>
       <c r="G147" s="16"/>
@@ -4715,7 +4880,7 @@
         <v>65</v>
       </c>
       <c r="E148" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F148" s="16"/>
       <c r="G148" s="16"/>
@@ -4725,16 +4890,16 @@
         <v>249</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="D149" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F149" s="16"/>
       <c r="G149" s="16"/>
@@ -4744,18 +4909,20 @@
         <v>249</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>64</v>
+        <v>261</v>
       </c>
       <c r="D150" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E150" s="16">
-        <v>2</v>
-      </c>
-      <c r="F150" s="16"/>
+        <v>19</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F150" s="16" t="s">
+        <v>266</v>
+      </c>
       <c r="G150" s="16"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -4763,16 +4930,16 @@
         <v>249</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D151" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F151" s="16"/>
       <c r="G151" s="16"/>
@@ -4791,7 +4958,7 @@
         <v>65</v>
       </c>
       <c r="E152" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F152" s="16"/>
       <c r="G152" s="16"/>
@@ -4801,16 +4968,16 @@
         <v>249</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D153" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F153" s="16"/>
       <c r="G153" s="16"/>
@@ -4829,7 +4996,7 @@
         <v>65</v>
       </c>
       <c r="E154" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F154" s="16"/>
       <c r="G154" s="16"/>
@@ -4839,7 +5006,7 @@
         <v>249</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C155" s="16" t="s">
         <v>258</v>
@@ -4848,7 +5015,7 @@
         <v>36</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F155" s="16"/>
       <c r="G155" s="16"/>
@@ -4877,7 +5044,7 @@
         <v>249</v>
       </c>
       <c r="B157" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C157" s="16" t="s">
         <v>258</v>
@@ -4915,7 +5082,7 @@
         <v>249</v>
       </c>
       <c r="B159" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C159" s="16" t="s">
         <v>258</v>
@@ -4924,7 +5091,7 @@
         <v>36</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F159" s="16"/>
       <c r="G159" s="16"/>
@@ -4953,7 +5120,7 @@
         <v>249</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C161" s="16" t="s">
         <v>258</v>
@@ -4962,7 +5129,7 @@
         <v>36</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F161" s="16"/>
       <c r="G161" s="16"/>
@@ -4972,16 +5139,16 @@
         <v>249</v>
       </c>
       <c r="B162" s="16" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>281</v>
+        <v>64</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E162" s="16" t="s">
-        <v>262</v>
+        <v>65</v>
+      </c>
+      <c r="E162" s="16">
+        <v>1</v>
       </c>
       <c r="F162" s="16"/>
       <c r="G162" s="16"/>
@@ -4991,16 +5158,16 @@
         <v>249</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="D163" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F163" s="16"/>
       <c r="G163" s="16"/>
@@ -5010,20 +5177,18 @@
         <v>249</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>261</v>
+        <v>64</v>
       </c>
       <c r="D164" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E164" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="F164" s="16" t="s">
-        <v>267</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E164" s="16">
+        <v>1</v>
+      </c>
+      <c r="F164" s="16"/>
       <c r="G164" s="16"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -5031,16 +5196,16 @@
         <v>249</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D165" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="F165" s="16"/>
       <c r="G165" s="16"/>
@@ -5050,16 +5215,16 @@
         <v>249</v>
       </c>
       <c r="B166" s="16" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>64</v>
+        <v>281</v>
       </c>
       <c r="D166" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E166" s="16">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="E166" s="16" t="s">
+        <v>262</v>
       </c>
       <c r="F166" s="16"/>
       <c r="G166" s="16"/>
@@ -5069,16 +5234,16 @@
         <v>249</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="D167" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="F167" s="16"/>
       <c r="G167" s="16"/>
@@ -5088,18 +5253,20 @@
         <v>249</v>
       </c>
       <c r="B168" s="16" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>64</v>
+        <v>261</v>
       </c>
       <c r="D168" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E168" s="16">
-        <v>2</v>
-      </c>
-      <c r="F168" s="16"/>
+        <v>19</v>
+      </c>
+      <c r="E168" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="F168" s="16" t="s">
+        <v>267</v>
+      </c>
       <c r="G168" s="16"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -5107,16 +5274,16 @@
         <v>249</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D169" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F169" s="16"/>
       <c r="G169" s="16"/>
@@ -5135,7 +5302,7 @@
         <v>65</v>
       </c>
       <c r="E170" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F170" s="16"/>
       <c r="G170" s="16"/>
@@ -5145,16 +5312,16 @@
         <v>249</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D171" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F171" s="16"/>
       <c r="G171" s="16"/>
@@ -5173,7 +5340,7 @@
         <v>65</v>
       </c>
       <c r="E172" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F172" s="16"/>
       <c r="G172" s="16"/>
@@ -5183,7 +5350,7 @@
         <v>249</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C173" s="16" t="s">
         <v>258</v>
@@ -5192,7 +5359,7 @@
         <v>36</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F173" s="16"/>
       <c r="G173" s="16"/>
@@ -5221,7 +5388,7 @@
         <v>249</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C175" s="16" t="s">
         <v>258</v>
@@ -5259,7 +5426,7 @@
         <v>249</v>
       </c>
       <c r="B177" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C177" s="16" t="s">
         <v>258</v>
@@ -5268,7 +5435,7 @@
         <v>36</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F177" s="16"/>
       <c r="G177" s="16"/>
@@ -5297,7 +5464,7 @@
         <v>249</v>
       </c>
       <c r="B179" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C179" s="16" t="s">
         <v>258</v>
@@ -5306,7 +5473,7 @@
         <v>36</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F179" s="16"/>
       <c r="G179" s="16"/>
@@ -5316,16 +5483,16 @@
         <v>249</v>
       </c>
       <c r="B180" s="16" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>284</v>
+        <v>64</v>
       </c>
       <c r="D180" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E180" s="16" t="s">
-        <v>262</v>
+        <v>65</v>
+      </c>
+      <c r="E180" s="16">
+        <v>1</v>
       </c>
       <c r="F180" s="16"/>
       <c r="G180" s="16"/>
@@ -5335,16 +5502,16 @@
         <v>249</v>
       </c>
       <c r="B181" s="16" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="D181" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F181" s="16"/>
       <c r="G181" s="16"/>
@@ -5354,16 +5521,16 @@
         <v>249</v>
       </c>
       <c r="B182" s="16" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>271</v>
+        <v>64</v>
       </c>
       <c r="D182" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="E182" s="16" t="s">
-        <v>269</v>
+        <v>65</v>
+      </c>
+      <c r="E182" s="16">
+        <v>1</v>
       </c>
       <c r="F182" s="16"/>
       <c r="G182" s="16"/>
@@ -5373,20 +5540,18 @@
         <v>249</v>
       </c>
       <c r="B183" s="16" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="D183" s="16" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="F183" s="16" t="s">
-        <v>274</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="F183" s="16"/>
       <c r="G183" s="16"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -5394,16 +5559,16 @@
         <v>249</v>
       </c>
       <c r="B184" s="16" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="D184" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="F184" s="16"/>
       <c r="G184" s="16"/>
@@ -5413,16 +5578,16 @@
         <v>249</v>
       </c>
       <c r="B185" s="16" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D185" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F185" s="16"/>
       <c r="G185" s="16"/>
@@ -5432,13 +5597,13 @@
         <v>249</v>
       </c>
       <c r="B186" s="16" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D186" s="16" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E186" s="16" t="s">
         <v>269</v>
@@ -5463,7 +5628,7 @@
         <v>273</v>
       </c>
       <c r="F187" s="16" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G187" s="16"/>
     </row>
@@ -5475,7 +5640,7 @@
         <v>168</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="D188" s="16" t="s">
         <v>36</v>
@@ -5494,13 +5659,13 @@
         <v>171</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="D189" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E189" s="17" t="s">
-        <v>288</v>
+        <v>277</v>
+      </c>
+      <c r="D189" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E189" s="16" t="s">
+        <v>278</v>
       </c>
       <c r="F189" s="16"/>
       <c r="G189" s="16"/>
@@ -5513,7 +5678,7 @@
         <v>175</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D190" s="16" t="s">
         <v>278</v>
@@ -5529,10 +5694,10 @@
         <v>249</v>
       </c>
       <c r="B191" s="16" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D191" s="16" t="s">
         <v>19</v>
@@ -5541,7 +5706,7 @@
         <v>273</v>
       </c>
       <c r="F191" s="16" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="G191" s="16"/>
     </row>
@@ -5550,10 +5715,10 @@
         <v>249</v>
       </c>
       <c r="B192" s="16" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D192" s="16" t="s">
         <v>36</v>
@@ -5569,16 +5734,16 @@
         <v>249</v>
       </c>
       <c r="B193" s="16" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="D193" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D193" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E193" s="17" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="F193" s="16"/>
       <c r="G193" s="16"/>
@@ -5588,10 +5753,10 @@
         <v>249</v>
       </c>
       <c r="B194" s="16" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="D194" s="16" t="s">
         <v>278</v>
@@ -5607,7 +5772,7 @@
         <v>249</v>
       </c>
       <c r="B195" s="16" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C195" s="16" t="s">
         <v>290</v>
@@ -5619,7 +5784,7 @@
         <v>273</v>
       </c>
       <c r="F195" s="16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G195" s="16"/>
     </row>
@@ -5631,7 +5796,7 @@
         <v>184</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D196" s="16" t="s">
         <v>36</v>
@@ -5650,13 +5815,13 @@
         <v>185</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D197" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E197" s="16" t="s">
-        <v>297</v>
+      <c r="E197" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="F197" s="16"/>
       <c r="G197" s="16"/>
@@ -5669,13 +5834,13 @@
         <v>186</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>65</v>
+        <v>279</v>
       </c>
       <c r="D198" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E198" s="16">
-        <v>2</v>
+        <v>278</v>
+      </c>
+      <c r="E198" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="F198" s="16"/>
       <c r="G198" s="16"/>
@@ -5688,15 +5853,17 @@
         <v>187</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D199" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="F199" s="16"/>
+        <v>273</v>
+      </c>
+      <c r="F199" s="16" t="s">
+        <v>294</v>
+      </c>
       <c r="G199" s="16"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -5704,16 +5871,16 @@
         <v>249</v>
       </c>
       <c r="B200" s="16" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D200" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="F200" s="16"/>
       <c r="G200" s="16"/>
@@ -5723,16 +5890,16 @@
         <v>249</v>
       </c>
       <c r="B201" s="16" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D201" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F201" s="16"/>
       <c r="G201" s="16"/>
@@ -5742,16 +5909,16 @@
         <v>249</v>
       </c>
       <c r="B202" s="16" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>304</v>
+        <v>65</v>
       </c>
       <c r="D202" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E202" s="16" t="s">
-        <v>305</v>
+        <v>65</v>
+      </c>
+      <c r="E202" s="16">
+        <v>2</v>
       </c>
       <c r="F202" s="16"/>
       <c r="G202" s="16"/>
@@ -5761,16 +5928,16 @@
         <v>249</v>
       </c>
       <c r="B203" s="16" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D203" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F203" s="16"/>
       <c r="G203" s="16"/>
@@ -5780,16 +5947,16 @@
         <v>249</v>
       </c>
       <c r="B204" s="16" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>65</v>
+        <v>302</v>
       </c>
       <c r="D204" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E204" s="16">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="E204" s="16" t="s">
+        <v>300</v>
       </c>
       <c r="F204" s="16"/>
       <c r="G204" s="16"/>
@@ -5799,16 +5966,16 @@
         <v>249</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D205" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F205" s="16"/>
       <c r="G205" s="16"/>
@@ -5818,16 +5985,16 @@
         <v>249</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="C206" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="D206" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E206" s="18" t="s">
-        <v>310</v>
+        <v>195</v>
+      </c>
+      <c r="C206" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="D206" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E206" s="16" t="s">
+        <v>305</v>
       </c>
       <c r="F206" s="16"/>
       <c r="G206" s="16"/>
@@ -5837,16 +6004,16 @@
         <v>249</v>
       </c>
       <c r="B207" s="16" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>65</v>
+        <v>307</v>
       </c>
       <c r="D207" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E207" s="16">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="E207" s="16" t="s">
+        <v>306</v>
       </c>
       <c r="F207" s="16"/>
       <c r="G207" s="16"/>
@@ -5856,114 +6023,110 @@
         <v>249</v>
       </c>
       <c r="B208" s="16" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D208" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E208" s="16"/>
+        <v>65</v>
+      </c>
+      <c r="E208" s="16">
+        <v>2</v>
+      </c>
       <c r="F208" s="16"/>
       <c r="G208" s="16"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="B209" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C209" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D209" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E209" s="19"/>
-      <c r="F209" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G209" s="19"/>
+      <c r="A209" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B209" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C209" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D209" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E209" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="F209" s="16"/>
+      <c r="G209" s="16"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="B210" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C210" s="19"/>
-      <c r="D210" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E210" s="19"/>
-      <c r="F210" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G210" s="19"/>
+      <c r="A210" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B210" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C210" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D210" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E210" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="F210" s="16"/>
+      <c r="G210" s="16"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="B211" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C211" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D211" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E211" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F211" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G211" s="19"/>
+      <c r="A211" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B211" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C211" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D211" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E211" s="16">
+        <v>2</v>
+      </c>
+      <c r="F211" s="16"/>
+      <c r="G211" s="16"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="B212" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C212" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D212" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E212" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F212" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G212" s="19"/>
+      <c r="A212" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B212" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C212" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D212" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E212" s="16"/>
+      <c r="F212" s="16"/>
+      <c r="G212" s="16"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="19" t="s">
         <v>312</v>
       </c>
       <c r="B213" s="19" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C213" s="19" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D213" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E213" s="19" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E213" s="19"/>
       <c r="F213" s="19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G213" s="19"/>
     </row>
@@ -5972,19 +6135,15 @@
         <v>312</v>
       </c>
       <c r="B214" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C214" s="19" t="s">
-        <v>34</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C214" s="19"/>
       <c r="D214" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E214" s="19" t="s">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E214" s="19"/>
       <c r="F214" s="19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G214" s="19"/>
     </row>
@@ -5993,19 +6152,19 @@
         <v>312</v>
       </c>
       <c r="B215" s="19" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D215" s="19" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E215" s="19" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F215" s="19" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G215" s="19"/>
     </row>
@@ -6014,18 +6173,20 @@
         <v>312</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C216" s="19" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D216" s="19" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E216" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F216" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="F216" s="19" t="s">
+        <v>60</v>
+      </c>
       <c r="G216" s="19"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -6033,18 +6194,20 @@
         <v>312</v>
       </c>
       <c r="B217" s="19" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D217" s="19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E217" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F217" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="F217" s="19" t="s">
+        <v>59</v>
+      </c>
       <c r="G217" s="19"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -6052,18 +6215,20 @@
         <v>312</v>
       </c>
       <c r="B218" s="19" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C218" s="19" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D218" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E218" s="19">
-        <v>5</v>
-      </c>
-      <c r="F218" s="19"/>
+        <v>30</v>
+      </c>
+      <c r="E218" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F218" s="19" t="s">
+        <v>60</v>
+      </c>
       <c r="G218" s="19"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -6071,18 +6236,20 @@
         <v>312</v>
       </c>
       <c r="B219" s="19" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D219" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E219" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F219" s="19"/>
+        <v>35</v>
+      </c>
+      <c r="F219" s="19" t="s">
+        <v>42</v>
+      </c>
       <c r="G219" s="19"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -6090,16 +6257,16 @@
         <v>312</v>
       </c>
       <c r="B220" s="19" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D220" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E220" s="19">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="E220" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="F220" s="19"/>
       <c r="G220" s="19"/>
@@ -6108,36 +6275,36 @@
       <c r="A221" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B221" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C221" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D221" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="E221" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="F221" s="19"/>
-      <c r="G221" s="19"/>
+      <c r="B221" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C221" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D221" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E221" s="22">
+        <v>10</v>
+      </c>
+      <c r="F221" s="22"/>
+      <c r="G221" s="22"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="19" t="s">
         <v>312</v>
       </c>
       <c r="B222" s="19" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="D222" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E222" s="19" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="F222" s="19"/>
       <c r="G222" s="19"/>
@@ -6147,16 +6314,16 @@
         <v>312</v>
       </c>
       <c r="B223" s="19" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>230</v>
+        <v>64</v>
       </c>
       <c r="D223" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E223" s="19" t="s">
-        <v>231</v>
+        <v>65</v>
+      </c>
+      <c r="E223" s="19">
+        <v>5</v>
       </c>
       <c r="F223" s="19"/>
       <c r="G223" s="19"/>
@@ -6166,16 +6333,16 @@
         <v>312</v>
       </c>
       <c r="B224" s="19" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C224" s="19" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="D224" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E224" s="19" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="F224" s="19"/>
       <c r="G224" s="19"/>
@@ -6185,7 +6352,7 @@
         <v>312</v>
       </c>
       <c r="B225" s="19" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C225" s="19" t="s">
         <v>64</v>
@@ -6204,16 +6371,16 @@
         <v>312</v>
       </c>
       <c r="B226" s="19" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C226" s="19" t="s">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="D226" s="19" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E226" s="19" t="s">
-        <v>313</v>
+        <v>226</v>
       </c>
       <c r="F226" s="19"/>
       <c r="G226" s="19"/>
@@ -6223,16 +6390,16 @@
         <v>312</v>
       </c>
       <c r="B227" s="19" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C227" s="19" t="s">
-        <v>314</v>
+        <v>132</v>
       </c>
       <c r="D227" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E227" s="19" t="s">
-        <v>313</v>
+        <v>133</v>
       </c>
       <c r="F227" s="19"/>
       <c r="G227" s="19"/>
@@ -6242,35 +6409,35 @@
         <v>312</v>
       </c>
       <c r="B228" s="19" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C228" s="19" t="s">
-        <v>64</v>
+        <v>230</v>
       </c>
       <c r="D228" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E228" s="19">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="E228" s="19" t="s">
+        <v>231</v>
       </c>
       <c r="F228" s="19"/>
       <c r="G228" s="19"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="20" t="s">
+      <c r="A229" s="19" t="s">
         <v>312</v>
       </c>
       <c r="B229" s="19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C229" s="19" t="s">
-        <v>316</v>
+        <v>136</v>
       </c>
       <c r="D229" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E229" s="19" t="s">
-        <v>315</v>
+        <v>137</v>
       </c>
       <c r="F229" s="19"/>
       <c r="G229" s="19"/>
@@ -6289,7 +6456,7 @@
         <v>65</v>
       </c>
       <c r="E230" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F230" s="19"/>
       <c r="G230" s="19"/>
@@ -6302,13 +6469,13 @@
         <v>80</v>
       </c>
       <c r="C231" s="19" t="s">
-        <v>318</v>
+        <v>232</v>
       </c>
       <c r="D231" s="19" t="s">
-        <v>36</v>
+        <v>234</v>
       </c>
       <c r="E231" s="19" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F231" s="19"/>
       <c r="G231" s="19"/>
@@ -6321,13 +6488,13 @@
         <v>90</v>
       </c>
       <c r="C232" s="19" t="s">
-        <v>239</v>
+        <v>314</v>
       </c>
       <c r="D232" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E232" s="19" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F232" s="19"/>
       <c r="G232" s="19"/>
@@ -6337,35 +6504,35 @@
         <v>312</v>
       </c>
       <c r="B233" s="19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C233" s="19" t="s">
-        <v>321</v>
+        <v>64</v>
       </c>
       <c r="D233" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E233" s="19" t="s">
-        <v>320</v>
+        <v>65</v>
+      </c>
+      <c r="E233" s="19">
+        <v>3</v>
       </c>
       <c r="F233" s="19"/>
       <c r="G233" s="19"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="19" t="s">
+      <c r="A234" s="20" t="s">
         <v>312</v>
       </c>
       <c r="B234" s="19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C234" s="19" t="s">
-        <v>64</v>
+        <v>316</v>
       </c>
       <c r="D234" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E234" s="19">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="E234" s="19" t="s">
+        <v>315</v>
       </c>
       <c r="F234" s="19"/>
       <c r="G234" s="19"/>
@@ -6375,16 +6542,16 @@
         <v>312</v>
       </c>
       <c r="B235" s="19" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C235" s="19" t="s">
-        <v>322</v>
+        <v>64</v>
       </c>
       <c r="D235" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E235" s="19" t="s">
-        <v>323</v>
+        <v>65</v>
+      </c>
+      <c r="E235" s="19">
+        <v>2</v>
       </c>
       <c r="F235" s="19"/>
       <c r="G235" s="19"/>
@@ -6394,16 +6561,16 @@
         <v>312</v>
       </c>
       <c r="B236" s="19" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C236" s="19" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D236" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E236" s="19" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F236" s="19"/>
       <c r="G236" s="19"/>
@@ -6413,16 +6580,16 @@
         <v>312</v>
       </c>
       <c r="B237" s="19" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C237" s="19" t="s">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="D237" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E237" s="19">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="E237" s="19" t="s">
+        <v>319</v>
       </c>
       <c r="F237" s="19"/>
       <c r="G237" s="19"/>
@@ -6432,16 +6599,16 @@
         <v>312</v>
       </c>
       <c r="B238" s="19" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C238" s="19" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D238" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E238" s="19" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F238" s="19"/>
       <c r="G238" s="19"/>
@@ -6451,16 +6618,16 @@
         <v>312</v>
       </c>
       <c r="B239" s="19" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C239" s="19" t="s">
-        <v>328</v>
+        <v>64</v>
       </c>
       <c r="D239" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E239" s="19" t="s">
-        <v>329</v>
+        <v>65</v>
+      </c>
+      <c r="E239" s="19">
+        <v>2</v>
       </c>
       <c r="F239" s="19"/>
       <c r="G239" s="19"/>
@@ -6470,16 +6637,16 @@
         <v>312</v>
       </c>
       <c r="B240" s="19" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C240" s="19" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D240" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E240" s="19" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F240" s="19"/>
       <c r="G240" s="19"/>
@@ -6489,20 +6656,18 @@
         <v>312</v>
       </c>
       <c r="B241" s="19" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C241" s="19" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D241" s="19" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E241" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="F241" s="19" t="s">
-        <v>334</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="F241" s="19"/>
       <c r="G241" s="19"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -6519,7 +6684,7 @@
         <v>65</v>
       </c>
       <c r="E242" s="19">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F242" s="19"/>
       <c r="G242" s="19"/>
@@ -6529,16 +6694,16 @@
         <v>312</v>
       </c>
       <c r="B243" s="19" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C243" s="19" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D243" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E243" s="19" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="F243" s="19"/>
       <c r="G243" s="19"/>
@@ -6548,16 +6713,16 @@
         <v>312</v>
       </c>
       <c r="B244" s="19" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C244" s="19" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D244" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E244" s="19" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F244" s="19"/>
       <c r="G244" s="19"/>
@@ -6567,16 +6732,16 @@
         <v>312</v>
       </c>
       <c r="B245" s="19" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C245" s="19" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D245" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E245" s="19" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="F245" s="19"/>
       <c r="G245" s="19"/>
@@ -6586,18 +6751,20 @@
         <v>312</v>
       </c>
       <c r="B246" s="19" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="C246" s="19" t="s">
-        <v>64</v>
+        <v>332</v>
       </c>
       <c r="D246" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E246" s="19">
-        <v>3</v>
-      </c>
-      <c r="F246" s="19"/>
+        <v>19</v>
+      </c>
+      <c r="E246" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="F246" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="G246" s="19"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -6605,20 +6772,18 @@
         <v>312</v>
       </c>
       <c r="B247" s="19" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="C247" s="19" t="s">
-        <v>342</v>
+        <v>64</v>
       </c>
       <c r="D247" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E247" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="F247" s="19" t="s">
-        <v>343</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E247" s="19">
+        <v>3</v>
+      </c>
+      <c r="F247" s="19"/>
       <c r="G247" s="19"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -6626,16 +6791,16 @@
         <v>312</v>
       </c>
       <c r="B248" s="19" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="C248" s="19" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="D248" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E248" s="19" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F248" s="19"/>
       <c r="G248" s="19"/>
@@ -6645,16 +6810,16 @@
         <v>312</v>
       </c>
       <c r="B249" s="19" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C249" s="19" t="s">
-        <v>64</v>
+        <v>336</v>
       </c>
       <c r="D249" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E249" s="19">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="E249" s="19" t="s">
+        <v>337</v>
       </c>
       <c r="F249" s="19"/>
       <c r="G249" s="19"/>
@@ -6664,16 +6829,16 @@
         <v>312</v>
       </c>
       <c r="B250" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C250" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="D250" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E250" s="20" t="s">
-        <v>346</v>
+        <v>114</v>
+      </c>
+      <c r="C250" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="D250" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E250" s="19" t="s">
+        <v>340</v>
       </c>
       <c r="F250" s="19"/>
       <c r="G250" s="19"/>
@@ -6702,1175 +6867,2040 @@
         <v>312</v>
       </c>
       <c r="B252" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C252" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="D252" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E252" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="F252" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="G252" s="19"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="B253" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C253" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="D253" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E253" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="F253" s="19"/>
+      <c r="G253" s="19"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="B254" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C254" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D254" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E254" s="19">
+        <v>2</v>
+      </c>
+      <c r="F254" s="19"/>
+      <c r="G254" s="19"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="B255" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C255" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="D255" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E255" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="F255" s="19"/>
+      <c r="G255" s="19"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="B256" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C256" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D256" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E256" s="19">
+        <v>3</v>
+      </c>
+      <c r="F256" s="19"/>
+      <c r="G256" s="19"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="B257" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C252" s="19" t="s">
+      <c r="C257" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="D252" s="19" t="s">
+      <c r="D257" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E252" s="19"/>
-      <c r="F252" s="19"/>
-      <c r="G252" s="19"/>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="23" t="s">
+      <c r="E257" s="19"/>
+      <c r="F257" s="19"/>
+      <c r="G257" s="19"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B258" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C258" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D258" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E258" s="22"/>
+      <c r="F258" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G258" s="22"/>
+      <c r="H258" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B259" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C259" s="22"/>
+      <c r="D259" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E259" s="22"/>
+      <c r="F259" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G259" s="22"/>
+      <c r="H259" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B260" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C260" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D260" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E260" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F260" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G260" s="22"/>
+      <c r="H260" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B261" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C261" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D261" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E261" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F261" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G261" s="22"/>
+      <c r="H261" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B262" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C262" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D262" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E262" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F262" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G262" s="22"/>
+      <c r="H262" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B263" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C263" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D263" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E263" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F263" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G263" s="22"/>
+      <c r="H263" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B264" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C264" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D264" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E264" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F264" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G264" s="22"/>
+      <c r="H264" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B265" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C265" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D265" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E265" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F265" s="22"/>
+      <c r="G265" s="22"/>
+      <c r="H265" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B266" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C266" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D266" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E266" s="22">
+        <v>10</v>
+      </c>
+      <c r="F266" s="22"/>
+      <c r="G266" s="22"/>
+      <c r="H266" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B267" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C267" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="D267" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="E267" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F267" s="22"/>
+      <c r="G267" s="22"/>
+      <c r="H267" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B268" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C268" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D268" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E268" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F268" s="22"/>
+      <c r="G268" s="22"/>
+      <c r="H268" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B269" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C269" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D269" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E269" s="22">
+        <v>5</v>
+      </c>
+      <c r="F269" s="22"/>
+      <c r="G269" s="22"/>
+      <c r="H269" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B270" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C270" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D270" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E270" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F270" s="22"/>
+      <c r="G270" s="22"/>
+      <c r="H270" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B271" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C271" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D271" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E271" s="22">
+        <v>3</v>
+      </c>
+      <c r="F271" s="22"/>
+      <c r="G271" s="22"/>
+      <c r="H271" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B272" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C272" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D272" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E272" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="F272" s="22"/>
+      <c r="G272" s="22"/>
+      <c r="H272" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B273" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C273" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D273" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E273" s="22">
+        <v>3</v>
+      </c>
+      <c r="F273" s="22"/>
+      <c r="G273" s="22"/>
+      <c r="H273" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B274" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C274" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D274" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E274" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="F274" s="22"/>
+      <c r="G274" s="22"/>
+      <c r="H274" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B275" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C275" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="D275" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E275" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="F275" s="22"/>
+      <c r="G275" s="22"/>
+      <c r="H275" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B276" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C276" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D276" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E276" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="F276" s="22"/>
+      <c r="G276" s="22"/>
+      <c r="H276" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B277" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C277" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D277" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E277" s="22">
+        <v>3</v>
+      </c>
+      <c r="F277" s="22"/>
+      <c r="G277" s="22"/>
+      <c r="H277" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B278" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C278" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D278" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E278" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="F278" s="22"/>
+      <c r="G278" s="22"/>
+      <c r="H278" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B279" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C279" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D279" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E279" s="22">
+        <v>3</v>
+      </c>
+      <c r="F279" s="22"/>
+      <c r="G279" s="22"/>
+      <c r="H279" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B280" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C280" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="D280" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E280" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="F280" s="22"/>
+      <c r="G280" s="22"/>
+      <c r="H280" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B281" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C281" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D281" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E281" s="22">
+        <v>6</v>
+      </c>
+      <c r="F281" s="22"/>
+      <c r="G281" s="22"/>
+      <c r="H281" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B282" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C282" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D282" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E282" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="F282" s="22"/>
+      <c r="G282" s="22"/>
+      <c r="H282" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B283" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C283" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D283" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E283" s="22">
+        <v>3</v>
+      </c>
+      <c r="F283" s="22"/>
+      <c r="G283" s="22"/>
+      <c r="H283" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B284" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C284" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="B253" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C253" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D253" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E253" s="23"/>
-      <c r="F253" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G253" s="23"/>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B254" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C254" s="23"/>
-      <c r="D254" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E254" s="23"/>
-      <c r="F254" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G254" s="23"/>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B255" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C255" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D255" s="23" t="s">
+      <c r="D284" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="E284" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="F284" s="22"/>
+      <c r="G284" s="22"/>
+      <c r="H284" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B285" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C285" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D285" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E285" s="22">
+        <v>2</v>
+      </c>
+      <c r="F285" s="22"/>
+      <c r="G285" s="22"/>
+      <c r="H285" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B286" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C286" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="D286" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E255" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F255" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G255" s="23"/>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B256" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C256" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D256" s="23" t="s">
+      <c r="E286" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="F286" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="G286" s="22"/>
+      <c r="H286" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B287" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C287" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="D287" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E287" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="F287" s="22"/>
+      <c r="G287" s="22"/>
+      <c r="H287" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B288" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C288" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="D288" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E288" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F288" s="22"/>
+      <c r="G288" s="22"/>
+      <c r="H288" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B289" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C289" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="D289" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E289" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="F289" s="22"/>
+      <c r="G289" s="22"/>
+      <c r="H289" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B290" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C290" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="D290" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E290" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F290" s="22"/>
+      <c r="G290" s="22"/>
+      <c r="H290" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B291" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C291" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="D291" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E291" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="F291" s="22"/>
+      <c r="G291" s="22"/>
+      <c r="H291" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B292" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C292" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="D292" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E292" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F292" s="22"/>
+      <c r="G292" s="22"/>
+      <c r="H292" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B293" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C293" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="D293" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E293" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="F293" s="22"/>
+      <c r="G293" s="22"/>
+      <c r="H293" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B294" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C294" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="D294" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E294" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="F294" s="22"/>
+      <c r="G294" s="22"/>
+      <c r="H294" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B295" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C295" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="D295" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="E295" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="F295" s="22"/>
+      <c r="G295" s="22"/>
+      <c r="H295" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B296" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C296" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="D296" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E256" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F256" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G256" s="23"/>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B257" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C257" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D257" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E257" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F257" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G257" s="23"/>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B258" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C258" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D258" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E258" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F258" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G258" s="23"/>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B259" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C259" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D259" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E259" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F259" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G259" s="23"/>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B260" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C260" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D260" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E260" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F260" s="23"/>
-      <c r="G260" s="23"/>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B261" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C261" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D261" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E261" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F261" s="23"/>
-      <c r="G261" s="23"/>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B262" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C262" s="23" t="s">
+      <c r="E296" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="F296" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="G296" s="22"/>
+      <c r="H296" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B297" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C297" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D297" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E297" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F297" s="22"/>
+      <c r="G297" s="22"/>
+      <c r="H297" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B298" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C298" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="D298" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E298" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="F298" s="22"/>
+      <c r="G298" s="22"/>
+      <c r="H298" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B299" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C299" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="D299" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="E299" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="F299" s="22"/>
+      <c r="G299" s="22"/>
+      <c r="H299" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B300" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C300" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="D300" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E300" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="F300" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="G300" s="22"/>
+      <c r="H300" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B301" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C301" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D301" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E301" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F301" s="22"/>
+      <c r="G301" s="22"/>
+      <c r="H301" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B302" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C302" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="D302" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E302" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="F302" s="22"/>
+      <c r="G302" s="22"/>
+      <c r="H302" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B303" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C303" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="D303" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E303" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="F303" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="G303" s="22"/>
+      <c r="H303" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B304" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C304" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="D304" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E304" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="F304" s="22"/>
+      <c r="G304" s="22"/>
+      <c r="H304" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B305" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C305" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D305" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E305" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F305" s="22"/>
+      <c r="G305" s="22"/>
+      <c r="H305" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B306" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C306" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="D306" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E306" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="F306" s="22"/>
+      <c r="G306" s="22"/>
+      <c r="H306" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B307" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C307" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D262" s="23" t="s">
+      <c r="D307" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E262" s="23">
-        <v>5</v>
-      </c>
-      <c r="F262" s="23"/>
-      <c r="G262" s="23"/>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B263" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C263" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D263" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E263" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F263" s="23"/>
-      <c r="G263" s="23"/>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B264" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C264" s="23" t="s">
+      <c r="E307" s="22">
+        <v>2</v>
+      </c>
+      <c r="F307" s="22"/>
+      <c r="G307" s="22"/>
+      <c r="H307" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B308" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C308" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="D308" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E308" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="F308" s="22"/>
+      <c r="G308" s="22"/>
+      <c r="H308" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B309" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C309" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D264" s="23" t="s">
+      <c r="D309" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E264" s="23">
+      <c r="E309" s="22">
+        <v>2</v>
+      </c>
+      <c r="F309" s="22"/>
+      <c r="G309" s="22"/>
+      <c r="H309" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B310" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C310" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="D310" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E310" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="F310" s="22"/>
+      <c r="G310" s="22"/>
+      <c r="H310" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B311" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C311" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D311" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E311" s="22">
+        <v>2</v>
+      </c>
+      <c r="F311" s="22"/>
+      <c r="G311" s="22"/>
+      <c r="H311" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B312" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C312" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="D312" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E312" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="F312" s="22"/>
+      <c r="G312" s="22"/>
+      <c r="H312" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B313" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C313" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D313" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E313" s="22">
+        <v>2</v>
+      </c>
+      <c r="F313" s="22"/>
+      <c r="G313" s="22"/>
+      <c r="H313" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B314" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C314" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="D314" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="E314" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="F314" s="22"/>
+      <c r="G314" s="22"/>
+      <c r="H314" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B315" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C315" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="D315" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E315" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="F315" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="G315" s="22"/>
+      <c r="H315" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B316" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C316" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D316" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E316" s="22">
+        <v>2</v>
+      </c>
+      <c r="F316" s="22"/>
+      <c r="G316" s="22"/>
+      <c r="H316" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B317" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C317" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D317" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E317" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="F317" s="22"/>
+      <c r="G317" s="22"/>
+      <c r="H317" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B318" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C318" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D318" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E318" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="F318" s="22"/>
+      <c r="G318" s="22"/>
+      <c r="H318" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B319" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C319" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D319" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E319" s="22">
+        <v>2</v>
+      </c>
+      <c r="F319" s="22"/>
+      <c r="G319" s="22"/>
+      <c r="H319" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B320" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C320" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D320" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="E320" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="F320" s="22"/>
+      <c r="G320" s="22"/>
+      <c r="H320" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B321" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C321" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="D321" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E321" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="F321" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="G321" s="22"/>
+      <c r="H321" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B322" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C322" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="D322" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E322" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="F322" s="22"/>
+      <c r="G322" s="22"/>
+      <c r="H322" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B323" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C323" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="D323" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E323" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="F323" s="22"/>
+      <c r="G323" s="22"/>
+      <c r="H323" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B324" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C324" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D324" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E324" s="22">
         <v>3</v>
       </c>
-      <c r="F264" s="23"/>
-      <c r="G264" s="23"/>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B265" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C265" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D265" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="E265" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="F265" s="23"/>
-      <c r="G265" s="23"/>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B266" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C266" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D266" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E266" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="F266" s="23"/>
-      <c r="G266" s="23"/>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A267" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B267" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C267" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="D267" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E267" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="F267" s="23"/>
-      <c r="G267" s="23"/>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B268" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C268" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="D268" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E268" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="F268" s="23"/>
-      <c r="G268" s="23"/>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B269" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C269" s="23" t="s">
+      <c r="F324" s="22"/>
+      <c r="G324" s="22"/>
+      <c r="H324" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B325" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C325" s="22"/>
+      <c r="D325" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E325" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="F325" s="22"/>
+      <c r="G325" s="22"/>
+      <c r="H325" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B326" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C326" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D269" s="23" t="s">
+      <c r="D326" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E269" s="23">
+      <c r="E326" s="22">
+        <v>2</v>
+      </c>
+      <c r="F326" s="22"/>
+      <c r="G326" s="22"/>
+      <c r="H326" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B327" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C327" s="22"/>
+      <c r="D327" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E327" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="F327" s="22"/>
+      <c r="G327" s="22"/>
+      <c r="H327" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B328" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C328" s="22"/>
+      <c r="D328" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E328" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="F328" s="22"/>
+      <c r="G328" s="22"/>
+      <c r="H328" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B329" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C329" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="D329" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E329" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="F329" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="G329" s="22"/>
+      <c r="H329" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B330" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="C330" s="22"/>
+      <c r="D330" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E330" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="F330" s="22"/>
+      <c r="G330" s="22"/>
+      <c r="H330" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B331" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C331" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D331" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E331" s="26">
         <v>3</v>
       </c>
-      <c r="F269" s="23"/>
-      <c r="G269" s="23"/>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B270" s="23" t="s">
+      <c r="F331" s="22"/>
+      <c r="G331" s="22"/>
+      <c r="H331" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B332" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C332" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="D332" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E332" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="F332" s="22"/>
+      <c r="G332" s="22"/>
+      <c r="H332" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B333" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C333" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="D333" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="E333" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="F333" s="22"/>
+      <c r="G333" s="22"/>
+      <c r="H333" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B334" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C334" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D334" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E334" s="22">
+        <v>2</v>
+      </c>
+      <c r="F334" s="22"/>
+      <c r="G334" s="22"/>
+      <c r="H334" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B335" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C335" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D335" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E335" s="22">
+        <v>3</v>
+      </c>
+      <c r="F335" s="22"/>
+      <c r="G335" s="22"/>
+      <c r="H335" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B336" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C336" s="22"/>
+      <c r="D336" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E336" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="F336" s="22"/>
+      <c r="G336" s="22"/>
+      <c r="H336" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B337" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="C337" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="D337" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E337" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="F337" s="22"/>
+      <c r="G337" s="22"/>
+      <c r="H337" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B338" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="C338" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="D338" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="E338" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="F338" s="22"/>
+      <c r="G338" s="22"/>
+      <c r="H338" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B339" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="C339" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="D339" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E339" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="F339" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="G339" s="22"/>
+      <c r="H339" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B340" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="C340" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="D340" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E340" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="F340" s="22"/>
+      <c r="G340" s="22"/>
+      <c r="H340" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B341" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C270" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="D270" s="23" t="s">
+      <c r="C341" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="D341" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="E270" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="F270" s="23"/>
-      <c r="G270" s="23"/>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B271" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C271" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D271" s="23" t="s">
+      <c r="E341" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="F341" s="22"/>
+      <c r="G341" s="22"/>
+      <c r="H341" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B342" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="C342" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="D342" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E342" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="F342" s="22"/>
+      <c r="G342" s="22"/>
+      <c r="H342" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B343" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C343" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E271" s="23">
+      <c r="D343" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E343" s="22">
         <v>3</v>
       </c>
-      <c r="F271" s="23"/>
-      <c r="G271" s="23"/>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B272" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C272" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="D272" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E272" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="F272" s="23"/>
-      <c r="G272" s="23"/>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B273" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C273" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D273" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E273" s="23">
-        <v>6</v>
-      </c>
-      <c r="F273" s="23"/>
-      <c r="G273" s="23"/>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B274" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C274" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="D274" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E274" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="F274" s="23"/>
-      <c r="G274" s="23"/>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B275" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C275" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D275" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E275" s="23">
-        <v>3</v>
-      </c>
-      <c r="F275" s="23"/>
-      <c r="G275" s="23"/>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B276" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C276" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="D276" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="E276" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="F276" s="23"/>
-      <c r="G276" s="23"/>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B277" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C277" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D277" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E277" s="23">
-        <v>2</v>
-      </c>
-      <c r="F277" s="23"/>
-      <c r="G277" s="23"/>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B278" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C278" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="D278" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E278" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="F278" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="G278" s="23"/>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B279" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C279" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="D279" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E279" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="F279" s="23"/>
-      <c r="G279" s="23"/>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A280" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B280" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C280" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="D280" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E280" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="F280" s="23"/>
-      <c r="G280" s="23"/>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B281" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C281" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="D281" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E281" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="F281" s="23"/>
-      <c r="G281" s="23"/>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B282" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C282" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="D282" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E282" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="F282" s="23"/>
-      <c r="G282" s="23"/>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B283" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C283" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="D283" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E283" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="F283" s="23"/>
-      <c r="G283" s="23"/>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B284" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C284" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="D284" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E284" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="F284" s="23"/>
-      <c r="G284" s="23"/>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B285" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C285" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="D285" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E285" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="F285" s="23"/>
-      <c r="G285" s="23"/>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B286" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C286" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="D286" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E286" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="F286" s="23"/>
-      <c r="G286" s="23"/>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B287" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C287" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="D287" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="E287" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="F287" s="23"/>
-      <c r="G287" s="23"/>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B288" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="C288" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="D288" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E288" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="F288" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="G288" s="23"/>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B289" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="C289" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D289" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E289" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="F289" s="23"/>
-      <c r="G289" s="23"/>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B290" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="C290" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="D290" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E290" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="F290" s="23"/>
-      <c r="G290" s="23"/>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A291" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B291" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="C291" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="D291" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="E291" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="F291" s="23"/>
-      <c r="G291" s="23"/>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B292" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="C292" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="D292" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E292" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="F292" s="23" t="s">
-        <v>379</v>
-      </c>
-      <c r="G292" s="23"/>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B293" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="C293" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D293" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E293" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="F293" s="23"/>
-      <c r="G293" s="23"/>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A294" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B294" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C294" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="D294" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E294" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="F294" s="23"/>
-      <c r="G294" s="23"/>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A295" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B295" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C295" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="D295" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E295" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="F295" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="G295" s="23"/>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A296" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B296" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="C296" s="25" t="s">
-        <v>388</v>
-      </c>
-      <c r="D296" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E296" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="F296" s="23"/>
-      <c r="G296" s="23"/>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A297" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B297" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="C297" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D297" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E297" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="F297" s="23"/>
-      <c r="G297" s="23"/>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A298" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B298" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="C298" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="D298" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E298" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="F298" s="23"/>
-      <c r="G298" s="23"/>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A299" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B299" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="C299" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D299" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E299" s="23">
-        <v>2</v>
-      </c>
-      <c r="F299" s="23"/>
-      <c r="G299" s="23"/>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A300" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B300" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="C300" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="D300" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E300" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="F300" s="23"/>
-      <c r="G300" s="23"/>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B301" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C301" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D301" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E301" s="23">
-        <v>2</v>
-      </c>
-      <c r="F301" s="23"/>
-      <c r="G301" s="23"/>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A302" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B302" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C302" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="D302" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E302" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="F302" s="23"/>
-      <c r="G302" s="23"/>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A303" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B303" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="C303" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D303" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E303" s="23">
-        <v>2</v>
-      </c>
-      <c r="F303" s="23"/>
-      <c r="G303" s="23"/>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A304" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B304" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="C304" s="23" t="s">
-        <v>398</v>
-      </c>
-      <c r="D304" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E304" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="F304" s="23"/>
-      <c r="G304" s="23"/>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A305" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B305" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="C305" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D305" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E305" s="23">
-        <v>2</v>
-      </c>
-      <c r="F305" s="23"/>
-      <c r="G305" s="23"/>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A306" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B306" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="C306" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="D306" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="E306" s="23" t="s">
-        <v>396</v>
-      </c>
-      <c r="F306" s="23"/>
-      <c r="G306" s="23"/>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A307" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B307" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="C307" s="23" t="s">
-        <v>400</v>
-      </c>
-      <c r="D307" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E307" s="23" t="s">
-        <v>396</v>
-      </c>
-      <c r="F307" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="G307" s="23"/>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B308" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="C308" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D308" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E308" s="23">
-        <v>2</v>
-      </c>
-      <c r="F308" s="23"/>
-      <c r="G308" s="23"/>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A309" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B309" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="C309" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="D309" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E309" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="F309" s="23"/>
-      <c r="G309" s="23"/>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A310" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B310" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="C310" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="D310" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E310" s="25" t="s">
-        <v>403</v>
-      </c>
-      <c r="F310" s="23"/>
-      <c r="G310" s="23"/>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A311" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B311" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="C311" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D311" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E311" s="23">
-        <v>2</v>
-      </c>
-      <c r="F311" s="23"/>
-      <c r="G311" s="23"/>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A312" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B312" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="C312" s="23" t="s">
-        <v>405</v>
-      </c>
-      <c r="D312" s="23" t="s">
-        <v>406</v>
-      </c>
-      <c r="E312" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="F312" s="23"/>
-      <c r="G312" s="23"/>
+      <c r="F343" s="22"/>
+      <c r="G343" s="22"/>
+      <c r="H343" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B344" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C344" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D344" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E344" s="22"/>
+      <c r="F344" s="22"/>
+      <c r="G344" s="22"/>
+      <c r="H344" t="s">
+        <v>439</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7883,15 +8913,15 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="255.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -7924,9 +8954,7 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>349</v>
-      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -7941,9 +8969,7 @@
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>350</v>
-      </c>
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7955,16 +8981,16 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7983,7 +9009,7 @@
       <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8001,10 +9027,10 @@
         <v>119</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>351</v>
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8021,10 +9047,10 @@
         <v>127</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>349</v>
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8041,10 +9067,10 @@
         <v>119</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>349</v>
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>
